--- a/data/WealthPercentiles.xlsx
+++ b/data/WealthPercentiles.xlsx
@@ -1,13 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27011"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bchartof/Projects/wealth-inequality-charts/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="17235" windowHeight="8760"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="24220" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Wealth Percentiles" sheetId="1" r:id="rId1"/>
+    <sheet name="Wealth Percentiles" sheetId="2" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
@@ -15,21 +20,25 @@
   <definedNames>
     <definedName name="A">[1]CI!$A$7:$BL$313</definedName>
     <definedName name="AA">[1]CI!$A$7:$BL$313</definedName>
+    <definedName name="B" localSheetId="0">#REF!</definedName>
     <definedName name="B">#REF!</definedName>
+    <definedName name="C_" localSheetId="0">#REF!</definedName>
     <definedName name="C_">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Percentiles of Family Wealth, 1963-2013</t>
-  </si>
-  <si>
-    <t>Notes: 2013 dollars. No comparable data are available between 1963 and 1983.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <r>
       <rPr>
@@ -53,17 +62,110 @@
     </r>
   </si>
   <si>
-    <t>Sources: Urban Institute calcualtions from Survey of Financial Characteristics of Consumers 1962 (December 31), Survey of Changes in Family Finances 1963, and Survey of Consumer Finances 1983–2013.</t>
+    <t>Within percentile, over time</t>
+  </si>
+  <si>
+    <t>10th pct</t>
+  </si>
+  <si>
+    <t>50th pct</t>
+  </si>
+  <si>
+    <t>90th pct</t>
+  </si>
+  <si>
+    <t>99th pct</t>
+  </si>
+  <si>
+    <t>$ change</t>
+  </si>
+  <si>
+    <t>Across percentiles</t>
+  </si>
+  <si>
+    <t>Difference bw 90th and 10th pct ($)</t>
+  </si>
+  <si>
+    <t>Difference bw 90th and 50th pct ($)</t>
+  </si>
+  <si>
+    <t>Calculations, Chart 1</t>
+  </si>
+  <si>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t>Ratio, 90th over 10th</t>
+  </si>
+  <si>
+    <t>Ratio, 90th over 50th</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Distribution of Family Wealth, 1963-2016</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sources:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> Urban Institute calcualtions from Survey of Financial Characteristics of Consumers 1962 (December 31), Survey of Changes in Family Finances 1963, and Survey of Consumer Finances 1983–2016.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Notes:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> 2016 dollars. No comparable data are available between 1963 and 1983.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +216,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -136,10 +254,10 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -162,7 +280,7 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -171,6 +289,20 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="13" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -194,6 +326,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -23660,12 +23795,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -23695,12 +23830,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -23904,24 +24039,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L111"/>
+  <dimension ref="A1:S111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N95" sqref="N95"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11.33203125" style="1" customWidth="1"/>
+    <col min="2" max="12" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.83203125" style="1"/>
+    <col min="15" max="15" width="11.5" style="1" customWidth="1"/>
+    <col min="16" max="16" width="19.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="17.5" style="1" customWidth="1"/>
+    <col min="18" max="18" width="13.5" style="1" customWidth="1"/>
+    <col min="19" max="19" width="13.6640625" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B2" s="1">
         <v>1963</v>
       </c>
@@ -23955,3796 +24101,4214 @@
       <c r="L2" s="1">
         <v>2013</v>
       </c>
+      <c r="M2" s="1">
+        <v>2016</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
-        <v>-6204.3540000000003</v>
-      </c>
-      <c r="C3" s="1">
-        <v>-7690.3879999999999</v>
-      </c>
-      <c r="D3" s="1">
-        <v>-14677.48</v>
-      </c>
-      <c r="E3" s="1">
-        <v>-18359.830000000002</v>
-      </c>
-      <c r="F3" s="1">
-        <v>-19352.98</v>
-      </c>
-      <c r="G3" s="1">
-        <v>-32721.75</v>
-      </c>
-      <c r="H3" s="1">
-        <v>-28234.15</v>
-      </c>
-      <c r="I3" s="1">
-        <v>-31790.400000000001</v>
-      </c>
-      <c r="J3" s="1">
-        <v>-35098.589999999997</v>
-      </c>
-      <c r="K3" s="1">
-        <v>-85627.42</v>
-      </c>
-      <c r="L3" s="1">
-        <v>-78900</v>
+      <c r="B3" s="11">
+        <v>-6405.2885318660274</v>
+      </c>
+      <c r="C3" s="11">
+        <v>-7939.4489999999996</v>
+      </c>
+      <c r="D3" s="8">
+        <v>-15150.78</v>
+      </c>
+      <c r="E3" s="8">
+        <v>-18950.88</v>
+      </c>
+      <c r="F3" s="8">
+        <v>-19966.560000000001</v>
+      </c>
+      <c r="G3" s="8">
+        <v>-33773.22</v>
+      </c>
+      <c r="H3" s="8">
+        <v>-29129.3</v>
+      </c>
+      <c r="I3" s="8">
+        <v>-32786.54</v>
+      </c>
+      <c r="J3" s="8">
+        <v>-36199.550000000003</v>
+      </c>
+      <c r="K3" s="8">
+        <v>-88314.66</v>
+      </c>
+      <c r="L3" s="8">
+        <v>-81354.16</v>
+      </c>
+      <c r="M3" s="8">
+        <v>-80620</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
-        <v>-4291.1959999999999</v>
-      </c>
-      <c r="C4" s="1">
-        <v>-3431.2040000000002</v>
-      </c>
-      <c r="D4" s="1">
-        <v>-8694.4159999999993</v>
-      </c>
-      <c r="E4" s="1">
-        <v>-10642.2</v>
-      </c>
-      <c r="F4" s="1">
-        <v>-10974.28</v>
-      </c>
-      <c r="G4" s="1">
-        <v>-20156.259999999998</v>
-      </c>
-      <c r="H4" s="1">
-        <v>-15548.48</v>
-      </c>
-      <c r="I4" s="1">
-        <v>-16894.05</v>
-      </c>
-      <c r="J4" s="1">
-        <v>-21108.560000000001</v>
-      </c>
-      <c r="K4" s="1">
-        <v>-55170.9</v>
-      </c>
-      <c r="L4" s="1">
-        <v>-52700</v>
+      <c r="B4" s="11">
+        <v>-4430.1708972101478</v>
+      </c>
+      <c r="C4" s="11">
+        <v>-3542.3270000000002</v>
+      </c>
+      <c r="D4" s="8">
+        <v>-8974.7870000000003</v>
+      </c>
+      <c r="E4" s="8">
+        <v>-10984.8</v>
+      </c>
+      <c r="F4" s="8">
+        <v>-11322.21</v>
+      </c>
+      <c r="G4" s="8">
+        <v>-20803.95</v>
+      </c>
+      <c r="H4" s="8">
+        <v>-16041.44</v>
+      </c>
+      <c r="I4" s="8">
+        <v>-17423.41</v>
+      </c>
+      <c r="J4" s="8">
+        <v>-21770.68</v>
+      </c>
+      <c r="K4" s="8">
+        <v>-56902.32</v>
+      </c>
+      <c r="L4" s="8">
+        <v>-54339.21</v>
+      </c>
+      <c r="M4" s="8">
+        <v>-50920</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" s="10">
+        <f>$M$12-$B$12</f>
+        <v>-931.54095803624455</v>
+      </c>
+      <c r="Q4" s="6">
+        <f>$M$12/$B$12</f>
+        <v>51.465292828595153</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
-        <v>-3349.5169999999998</v>
-      </c>
-      <c r="C5" s="1">
-        <v>-1871.1410000000001</v>
-      </c>
-      <c r="D5" s="1">
-        <v>-6236.12</v>
-      </c>
-      <c r="E5" s="1">
-        <v>-5767.9110000000001</v>
-      </c>
-      <c r="F5" s="1">
-        <v>-7134.04</v>
-      </c>
-      <c r="G5" s="1">
-        <v>-12223.84</v>
-      </c>
-      <c r="H5" s="1">
-        <v>-8732.8880000000008</v>
-      </c>
-      <c r="I5" s="1">
-        <v>-10728.34</v>
-      </c>
-      <c r="J5" s="1">
-        <v>-12058.82</v>
-      </c>
-      <c r="K5" s="1">
-        <v>-36759.160000000003</v>
-      </c>
-      <c r="L5" s="1">
-        <v>-37450</v>
+      <c r="B5" s="11">
+        <v>-3457.9946320584381</v>
+      </c>
+      <c r="C5" s="11">
+        <v>-1931.739</v>
+      </c>
+      <c r="D5" s="8">
+        <v>-6437.2169999999996</v>
+      </c>
+      <c r="E5" s="8">
+        <v>-5953.5929999999998</v>
+      </c>
+      <c r="F5" s="8">
+        <v>-7360.2209999999995</v>
+      </c>
+      <c r="G5" s="8">
+        <v>-12616.64</v>
+      </c>
+      <c r="H5" s="8">
+        <v>-9009.76</v>
+      </c>
+      <c r="I5" s="8">
+        <v>-11064.5</v>
+      </c>
+      <c r="J5" s="8">
+        <v>-12437.08</v>
+      </c>
+      <c r="K5" s="8">
+        <v>-37912.78</v>
+      </c>
+      <c r="L5" s="8">
+        <v>-38614.870000000003</v>
+      </c>
+      <c r="M5" s="8">
+        <v>-34580</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P5" s="10">
+        <f>$M$52-$B$52</f>
+        <v>56271.698131000354</v>
+      </c>
+      <c r="Q5" s="6">
+        <f>$M$52/$B$52</f>
+        <v>2.3715336869332724</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
-        <v>-2604.518</v>
-      </c>
-      <c r="C6" s="1">
-        <v>-704.01670000000001</v>
-      </c>
-      <c r="D6" s="1">
-        <v>-3416.3090000000002</v>
-      </c>
-      <c r="E6" s="1">
-        <v>-3688.2139999999999</v>
-      </c>
-      <c r="F6" s="1">
-        <v>-4083.0990000000002</v>
-      </c>
-      <c r="G6" s="1">
-        <v>-8176.8649999999998</v>
-      </c>
-      <c r="H6" s="1">
-        <v>-4766.9750000000004</v>
-      </c>
-      <c r="I6" s="1">
-        <v>-6757.6180000000004</v>
-      </c>
-      <c r="J6" s="1">
-        <v>-7971.8490000000002</v>
-      </c>
-      <c r="K6" s="1">
-        <v>-26138.66</v>
-      </c>
-      <c r="L6" s="1">
-        <v>-25000</v>
+      <c r="B6" s="11">
+        <v>-2688.8680556329705</v>
+      </c>
+      <c r="C6" s="11">
+        <v>-726.81700000000001</v>
+      </c>
+      <c r="D6" s="8">
+        <v>-3526.4760000000001</v>
+      </c>
+      <c r="E6" s="8">
+        <v>-3806.9459999999999</v>
+      </c>
+      <c r="F6" s="8">
+        <v>-4212.5519999999997</v>
+      </c>
+      <c r="G6" s="8">
+        <v>-8439.6170000000002</v>
+      </c>
+      <c r="H6" s="8">
+        <v>-4918.1090000000004</v>
+      </c>
+      <c r="I6" s="8">
+        <v>-6969.3649999999998</v>
+      </c>
+      <c r="J6" s="8">
+        <v>-8221.9060000000009</v>
+      </c>
+      <c r="K6" s="8">
+        <v>-26958.97</v>
+      </c>
+      <c r="L6" s="8">
+        <v>-25777.62</v>
+      </c>
+      <c r="M6" s="8">
+        <v>-25749</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P6" s="10">
+        <f>$M$92-$B$92</f>
+        <v>947709.93628470472</v>
+      </c>
+      <c r="Q6" s="6">
+        <f>$M$92/$B$92</f>
+        <v>4.9676366218101222</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
-        <v>-2014.4780000000001</v>
-      </c>
-      <c r="C7" s="1">
-        <v>-81.862399999999994</v>
-      </c>
-      <c r="D7" s="1">
-        <v>-1536.4349999999999</v>
-      </c>
-      <c r="E7" s="1">
-        <v>-1835.9829999999999</v>
-      </c>
-      <c r="F7" s="1">
-        <v>-2276.8209999999999</v>
-      </c>
-      <c r="G7" s="1">
-        <v>-4288.5649999999996</v>
-      </c>
-      <c r="H7" s="1">
-        <v>-2035.4849999999999</v>
-      </c>
-      <c r="I7" s="1">
-        <v>-3354.1460000000002</v>
-      </c>
-      <c r="J7" s="1">
-        <v>-5164.8590000000004</v>
-      </c>
-      <c r="K7" s="1">
-        <v>-16504.12</v>
-      </c>
-      <c r="L7" s="1">
-        <v>-18550</v>
+      <c r="B7" s="11">
+        <v>-2079.7189894542462</v>
+      </c>
+      <c r="C7" s="11">
+        <v>-84.513599999999997</v>
+      </c>
+      <c r="D7" s="8">
+        <v>-1585.981</v>
+      </c>
+      <c r="E7" s="8">
+        <v>-1895.088</v>
+      </c>
+      <c r="F7" s="8">
+        <v>-2349.0070000000001</v>
+      </c>
+      <c r="G7" s="8">
+        <v>-4426.3729999999996</v>
+      </c>
+      <c r="H7" s="8">
+        <v>-2100.0189999999998</v>
+      </c>
+      <c r="I7" s="8">
+        <v>-3459.2469999999998</v>
+      </c>
+      <c r="J7" s="8">
+        <v>-5326.8689999999997</v>
+      </c>
+      <c r="K7" s="8">
+        <v>-17022.060000000001</v>
+      </c>
+      <c r="L7" s="8">
+        <v>-19126.990000000002</v>
+      </c>
+      <c r="M7" s="8">
+        <v>-17300</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="10">
+        <f>$M$101-$B$101</f>
+        <v>8942799.4760991205</v>
+      </c>
+      <c r="Q7" s="6">
+        <f>$M$101/$B$101</f>
+        <v>7.1369724546622679</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
-        <v>-1466.1590000000001</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="B8" s="11">
+        <v>-1513.6421017550197</v>
+      </c>
+      <c r="C8" s="11">
         <v>0</v>
       </c>
-      <c r="D8" s="1">
-        <v>-903.78549999999996</v>
-      </c>
-      <c r="E8" s="1">
-        <v>-812.3818</v>
-      </c>
-      <c r="F8" s="1">
-        <v>-910.72850000000005</v>
-      </c>
-      <c r="G8" s="1">
-        <v>-2301.5300000000002</v>
-      </c>
-      <c r="H8" s="1">
-        <v>-656.60810000000004</v>
-      </c>
-      <c r="I8" s="1">
-        <v>-1442.7760000000001</v>
-      </c>
-      <c r="J8" s="1">
-        <v>-2211.9070000000002</v>
-      </c>
-      <c r="K8" s="1">
-        <v>-11520.73</v>
-      </c>
-      <c r="L8" s="1">
-        <v>-13059</v>
+      <c r="D8" s="8">
+        <v>-932.93010000000004</v>
+      </c>
+      <c r="E8" s="8">
+        <v>-838.53430000000003</v>
+      </c>
+      <c r="F8" s="8">
+        <v>-939.60270000000003</v>
+      </c>
+      <c r="G8" s="8">
+        <v>-2375.4870000000001</v>
+      </c>
+      <c r="H8" s="8">
+        <v>-677.42550000000006</v>
+      </c>
+      <c r="I8" s="8">
+        <v>-1487.9849999999999</v>
+      </c>
+      <c r="J8" s="8">
+        <v>-2281.29</v>
+      </c>
+      <c r="K8" s="8">
+        <v>-11882.28</v>
+      </c>
+      <c r="L8" s="8">
+        <v>-13465.2</v>
+      </c>
+      <c r="M8" s="8">
+        <v>-11710</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
-        <v>-971.47910000000002</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="B9" s="11">
+        <v>-1002.9414727427754</v>
+      </c>
+      <c r="C9" s="11">
         <v>0</v>
       </c>
-      <c r="D9" s="1">
-        <v>-216.9085</v>
-      </c>
-      <c r="E9" s="1">
-        <v>-81.23818</v>
-      </c>
-      <c r="F9" s="1">
-        <v>-15.17881</v>
-      </c>
-      <c r="G9" s="1">
-        <v>-857.71310000000005</v>
-      </c>
-      <c r="H9" s="1">
+      <c r="D9" s="8">
+        <v>-223.9032</v>
+      </c>
+      <c r="E9" s="8">
+        <v>-83.853430000000003</v>
+      </c>
+      <c r="F9" s="8">
+        <v>-15.66004</v>
+      </c>
+      <c r="G9" s="8">
+        <v>-885.27449999999999</v>
+      </c>
+      <c r="H9" s="8">
         <v>0</v>
       </c>
-      <c r="I9" s="1">
-        <v>-209.63409999999999</v>
-      </c>
-      <c r="J9" s="1">
-        <v>-864.55259999999998</v>
-      </c>
-      <c r="K9" s="1">
-        <v>-7694.7749999999996</v>
-      </c>
-      <c r="L9" s="1">
-        <v>-9050</v>
-      </c>
+      <c r="I9" s="8">
+        <v>-216.2029</v>
+      </c>
+      <c r="J9" s="8">
+        <v>-891.67160000000001</v>
+      </c>
+      <c r="K9" s="8">
+        <v>-7936.2610000000004</v>
+      </c>
+      <c r="L9" s="8">
+        <v>-9331.4969999999994</v>
+      </c>
+      <c r="M9" s="8">
+        <v>-7998</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
-        <v>-530.43949999999995</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="B10" s="11">
+        <v>-547.61834128077624</v>
+      </c>
+      <c r="C10" s="11">
         <v>0</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="8">
         <v>0</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="8">
         <v>0</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="8">
         <v>0</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="8">
         <v>0</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="8">
         <v>0</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="8">
         <v>0</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="8">
         <v>0</v>
       </c>
-      <c r="K10" s="1">
-        <v>-4822.6310000000003</v>
-      </c>
-      <c r="L10" s="1">
-        <v>-6100</v>
+      <c r="K10" s="8">
+        <v>-4973.9790000000003</v>
+      </c>
+      <c r="L10" s="8">
+        <v>-6289.7380000000003</v>
+      </c>
+      <c r="M10" s="8">
+        <v>-5170</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="R10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="S10" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="14.25" customHeight="1">
+    <row r="11" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
-        <v>-286.0797</v>
-      </c>
-      <c r="C11" s="1">
-        <v>292.3657</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="B11" s="11">
+        <v>-295.34469206780813</v>
+      </c>
+      <c r="C11" s="11">
+        <v>301.83429999999998</v>
+      </c>
+      <c r="D11" s="8">
         <v>0</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="8">
         <v>0</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="8">
         <v>0</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="8">
         <v>0</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="8">
         <v>0</v>
       </c>
-      <c r="I11" s="1">
-        <v>1.233142</v>
-      </c>
-      <c r="J11" s="1">
+      <c r="I11" s="8">
+        <v>1.271782</v>
+      </c>
+      <c r="J11" s="8">
         <v>0</v>
       </c>
-      <c r="K11" s="1">
-        <v>-2797.1260000000002</v>
-      </c>
-      <c r="L11" s="1">
-        <v>-3790</v>
+      <c r="K11" s="8">
+        <v>-2884.9079999999999</v>
+      </c>
+      <c r="L11" s="8">
+        <v>-3907.8870000000002</v>
+      </c>
+      <c r="M11" s="8">
+        <v>-2818</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1963</v>
+      </c>
+      <c r="P11" s="9">
+        <f>$B$92-$B$12</f>
+        <v>238878.52275725905</v>
+      </c>
+      <c r="Q11" s="9">
+        <f>$B$92-$B$52</f>
+        <v>197831.76184629565</v>
+      </c>
+      <c r="R11" s="8">
+        <f>ABS($B$92/$B$12)</f>
+        <v>12940.003288594282</v>
+      </c>
+      <c r="S11" s="8">
+        <f>$B$92/$B$52</f>
+        <v>5.8218364600601289</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="1">
-        <v>-17.87998</v>
-      </c>
-      <c r="C12" s="1">
-        <v>701.67769999999996</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="B12" s="11">
+        <v>-18.459041963755443</v>
+      </c>
+      <c r="C12" s="11">
+        <v>724.40229999999997</v>
+      </c>
+      <c r="D12" s="8">
         <v>0</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="8">
         <v>0</v>
       </c>
-      <c r="F12" s="1">
-        <v>91.072850000000003</v>
-      </c>
-      <c r="G12" s="1">
+      <c r="F12" s="8">
+        <v>93.960269999999994</v>
+      </c>
+      <c r="G12" s="8">
         <v>0</v>
       </c>
-      <c r="H12" s="1">
-        <v>131.32159999999999</v>
-      </c>
-      <c r="I12" s="1">
-        <v>246.6284</v>
-      </c>
-      <c r="J12" s="1">
-        <v>33.683869999999999</v>
-      </c>
-      <c r="K12" s="1">
-        <v>-1071.6959999999999</v>
-      </c>
-      <c r="L12" s="1">
-        <v>-2050</v>
+      <c r="H12" s="8">
+        <v>135.48509999999999</v>
+      </c>
+      <c r="I12" s="8">
+        <v>254.35640000000001</v>
+      </c>
+      <c r="J12" s="8">
+        <v>34.740450000000003</v>
+      </c>
+      <c r="K12" s="8">
+        <v>-1105.329</v>
+      </c>
+      <c r="L12" s="8">
+        <v>-2113.7649999999999</v>
+      </c>
+      <c r="M12" s="8">
+        <v>-950</v>
+      </c>
+      <c r="O12" s="1">
+        <v>2016</v>
+      </c>
+      <c r="P12" s="9">
+        <f>$M$92-$M$12</f>
+        <v>1187520</v>
+      </c>
+      <c r="Q12" s="9">
+        <f>$M$92-$M$52</f>
+        <v>1089270</v>
+      </c>
+      <c r="R12" s="8">
+        <f>ABS($M$92/$M$12)</f>
+        <v>1249.0210526315789</v>
+      </c>
+      <c r="S12" s="8">
+        <f>$M$92/$M$52</f>
+        <v>12.194964028776978</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="1">
-        <v>5.959994</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1181.1569999999999</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="B13" s="11">
+        <v>6.1530146761758484</v>
+      </c>
+      <c r="C13" s="11">
+        <v>1219.4110000000001</v>
+      </c>
+      <c r="D13" s="8">
         <v>0</v>
       </c>
-      <c r="E13" s="1">
-        <v>162.47640000000001</v>
-      </c>
-      <c r="F13" s="1">
-        <v>485.72190000000001</v>
-      </c>
-      <c r="G13" s="1">
-        <v>142.9522</v>
-      </c>
-      <c r="H13" s="1">
-        <v>525.28650000000005</v>
-      </c>
-      <c r="I13" s="1">
-        <v>1109.828</v>
-      </c>
-      <c r="J13" s="1">
-        <v>348.06659999999999</v>
-      </c>
-      <c r="K13" s="1">
-        <v>-64.301739999999995</v>
-      </c>
-      <c r="L13" s="1">
-        <v>-670</v>
+      <c r="E13" s="8">
+        <v>167.70689999999999</v>
+      </c>
+      <c r="F13" s="8">
+        <v>501.12139999999999</v>
+      </c>
+      <c r="G13" s="8">
+        <v>147.54580000000001</v>
+      </c>
+      <c r="H13" s="8">
+        <v>541.94039999999995</v>
+      </c>
+      <c r="I13" s="8">
+        <v>1144.604</v>
+      </c>
+      <c r="J13" s="8">
+        <v>358.9846</v>
+      </c>
+      <c r="K13" s="8">
+        <v>-66.319730000000007</v>
+      </c>
+      <c r="L13" s="8">
+        <v>-690.84010000000001</v>
+      </c>
+      <c r="M13" s="8">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="1">
-        <v>5.959994</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1609.181</v>
-      </c>
-      <c r="D14" s="1">
-        <v>90.378550000000004</v>
-      </c>
-      <c r="E14" s="1">
-        <v>536.17200000000003</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1138.4110000000001</v>
-      </c>
-      <c r="G14" s="1">
-        <v>457.447</v>
-      </c>
-      <c r="H14" s="1">
-        <v>1155.6300000000001</v>
-      </c>
-      <c r="I14" s="1">
-        <v>1849.713</v>
-      </c>
-      <c r="J14" s="1">
-        <v>1066.6559999999999</v>
-      </c>
-      <c r="K14" s="1">
+      <c r="B14" s="11">
+        <v>6.1530146761758484</v>
+      </c>
+      <c r="C14" s="11">
+        <v>1661.296</v>
+      </c>
+      <c r="D14" s="8">
+        <v>93.293009999999995</v>
+      </c>
+      <c r="E14" s="8">
+        <v>553.43259999999998</v>
+      </c>
+      <c r="F14" s="8">
+        <v>1174.5029999999999</v>
+      </c>
+      <c r="G14" s="8">
+        <v>472.14640000000003</v>
+      </c>
+      <c r="H14" s="8">
+        <v>1192.269</v>
+      </c>
+      <c r="I14" s="8">
+        <v>1907.673</v>
+      </c>
+      <c r="J14" s="8">
+        <v>1100.114</v>
+      </c>
+      <c r="K14" s="8">
         <v>0</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14" s="8">
         <v>0</v>
       </c>
+      <c r="M14" s="8">
+        <v>60</v>
+      </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="1">
-        <v>5.959994</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1929.614</v>
-      </c>
-      <c r="D15" s="1">
-        <v>361.51420000000002</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1104.8389999999999</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1671.1869999999999</v>
-      </c>
-      <c r="G15" s="1">
-        <v>857.71310000000005</v>
-      </c>
-      <c r="H15" s="1">
-        <v>1969.8240000000001</v>
-      </c>
-      <c r="I15" s="1">
-        <v>2342.9699999999998</v>
-      </c>
-      <c r="J15" s="1">
-        <v>1796.473</v>
-      </c>
-      <c r="K15" s="1">
+      <c r="B15" s="11">
+        <v>6.1530146761758484</v>
+      </c>
+      <c r="C15" s="11">
+        <v>1992.106</v>
+      </c>
+      <c r="D15" s="8">
+        <v>373.17200000000003</v>
+      </c>
+      <c r="E15" s="8">
+        <v>1140.4069999999999</v>
+      </c>
+      <c r="F15" s="8">
+        <v>1724.171</v>
+      </c>
+      <c r="G15" s="8">
+        <v>885.27449999999999</v>
+      </c>
+      <c r="H15" s="8">
+        <v>2032.2760000000001</v>
+      </c>
+      <c r="I15" s="8">
+        <v>2416.386</v>
+      </c>
+      <c r="J15" s="8">
+        <v>1852.8240000000001</v>
+      </c>
+      <c r="K15" s="8">
         <v>0</v>
       </c>
-      <c r="L15" s="1">
-        <v>1</v>
+      <c r="L15" s="8">
+        <v>1.0311049999999999</v>
+      </c>
+      <c r="M15" s="8">
+        <v>320</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="1">
-        <v>5.959994</v>
-      </c>
-      <c r="C16" s="1">
-        <v>2338.9259999999999</v>
-      </c>
-      <c r="D16" s="1">
-        <v>723.02840000000003</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1462.287</v>
-      </c>
-      <c r="F16" s="1">
-        <v>2474.1460000000002</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1558.1790000000001</v>
-      </c>
-      <c r="H16" s="1">
-        <v>2757.7539999999999</v>
-      </c>
-      <c r="I16" s="1">
-        <v>2860.89</v>
-      </c>
-      <c r="J16" s="1">
-        <v>2492.6060000000002</v>
-      </c>
-      <c r="K16" s="1">
-        <v>128.6035</v>
-      </c>
-      <c r="L16" s="1">
-        <v>200</v>
+      <c r="B16" s="11">
+        <v>6.1530146761758484</v>
+      </c>
+      <c r="C16" s="11">
+        <v>2414.674</v>
+      </c>
+      <c r="D16" s="8">
+        <v>746.34410000000003</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1509.3620000000001</v>
+      </c>
+      <c r="F16" s="8">
+        <v>2552.587</v>
+      </c>
+      <c r="G16" s="8">
+        <v>1608.249</v>
+      </c>
+      <c r="H16" s="8">
+        <v>2845.1869999999999</v>
+      </c>
+      <c r="I16" s="8">
+        <v>2950.5340000000001</v>
+      </c>
+      <c r="J16" s="8">
+        <v>2570.7930000000001</v>
+      </c>
+      <c r="K16" s="8">
+        <v>132.6395</v>
+      </c>
+      <c r="L16" s="8">
+        <v>206.2209</v>
+      </c>
+      <c r="M16" s="8">
+        <v>680</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="1">
-        <v>154.9599</v>
-      </c>
-      <c r="C17" s="1">
-        <v>2783.3220000000001</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1084.5429999999999</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1949.7159999999999</v>
-      </c>
-      <c r="F17" s="1">
-        <v>3354.5169999999998</v>
-      </c>
-      <c r="G17" s="1">
-        <v>2215.759</v>
-      </c>
-      <c r="H17" s="1">
-        <v>3545.6840000000002</v>
-      </c>
-      <c r="I17" s="1">
-        <v>3452.7979999999998</v>
-      </c>
-      <c r="J17" s="1">
-        <v>3368.3870000000002</v>
-      </c>
-      <c r="K17" s="1">
-        <v>750.18700000000001</v>
-      </c>
-      <c r="L17" s="1">
-        <v>540</v>
+      <c r="B17" s="11">
+        <v>159.97843939419099</v>
+      </c>
+      <c r="C17" s="11">
+        <v>2873.462</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1119.5160000000001</v>
+      </c>
+      <c r="E17" s="8">
+        <v>2012.482</v>
+      </c>
+      <c r="F17" s="8">
+        <v>3460.87</v>
+      </c>
+      <c r="G17" s="8">
+        <v>2286.9589999999998</v>
+      </c>
+      <c r="H17" s="8">
+        <v>3658.098</v>
+      </c>
+      <c r="I17" s="8">
+        <v>3560.99</v>
+      </c>
+      <c r="J17" s="8">
+        <v>3474.0450000000001</v>
+      </c>
+      <c r="K17" s="8">
+        <v>773.73019999999997</v>
+      </c>
+      <c r="L17" s="8">
+        <v>556.79650000000004</v>
+      </c>
+      <c r="M17" s="8">
+        <v>1100</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="1">
-        <v>423.15960000000001</v>
-      </c>
-      <c r="C18" s="1">
-        <v>3351.68</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1807.5709999999999</v>
-      </c>
-      <c r="E18" s="1">
-        <v>2599.6219999999998</v>
-      </c>
-      <c r="F18" s="1">
-        <v>4219.7079999999996</v>
-      </c>
-      <c r="G18" s="1">
-        <v>3044.8820000000001</v>
-      </c>
-      <c r="H18" s="1">
-        <v>4333.6130000000003</v>
-      </c>
-      <c r="I18" s="1">
-        <v>4069.3690000000001</v>
-      </c>
-      <c r="J18" s="1">
-        <v>4221.7110000000002</v>
-      </c>
-      <c r="K18" s="1">
-        <v>1425.355</v>
-      </c>
-      <c r="L18" s="1">
-        <v>1200</v>
+      <c r="B18" s="11">
+        <v>436.86406885052264</v>
+      </c>
+      <c r="C18" s="11">
+        <v>3460.2280000000001</v>
+      </c>
+      <c r="D18" s="8">
+        <v>1865.86</v>
+      </c>
+      <c r="E18" s="8">
+        <v>2683.31</v>
+      </c>
+      <c r="F18" s="8">
+        <v>4353.4920000000002</v>
+      </c>
+      <c r="G18" s="8">
+        <v>3142.7249999999999</v>
+      </c>
+      <c r="H18" s="8">
+        <v>4471.0079999999998</v>
+      </c>
+      <c r="I18" s="8">
+        <v>4196.88</v>
+      </c>
+      <c r="J18" s="8">
+        <v>4354.1360000000004</v>
+      </c>
+      <c r="K18" s="8">
+        <v>1470.087</v>
+      </c>
+      <c r="L18" s="8">
+        <v>1237.326</v>
+      </c>
+      <c r="M18" s="8">
+        <v>1560</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="1">
-        <v>768.83920000000001</v>
-      </c>
-      <c r="C19" s="1">
-        <v>3896.65</v>
-      </c>
-      <c r="D19" s="1">
-        <v>2078.7069999999999</v>
-      </c>
-      <c r="E19" s="1">
-        <v>3152.0419999999999</v>
-      </c>
-      <c r="F19" s="1">
-        <v>5312.5829999999996</v>
-      </c>
-      <c r="G19" s="1">
-        <v>4002.6610000000001</v>
-      </c>
-      <c r="H19" s="1">
-        <v>5252.8649999999998</v>
-      </c>
-      <c r="I19" s="1">
-        <v>4907.9049999999997</v>
-      </c>
-      <c r="J19" s="1">
-        <v>5198.5429999999997</v>
-      </c>
-      <c r="K19" s="1">
-        <v>2143.3919999999998</v>
-      </c>
-      <c r="L19" s="1">
-        <v>1950</v>
+      <c r="B19" s="11">
+        <v>793.73886638464717</v>
+      </c>
+      <c r="C19" s="11">
+        <v>4022.8470000000002</v>
+      </c>
+      <c r="D19" s="8">
+        <v>2145.739</v>
+      </c>
+      <c r="E19" s="8">
+        <v>3253.5129999999999</v>
+      </c>
+      <c r="F19" s="8">
+        <v>5481.0159999999996</v>
+      </c>
+      <c r="G19" s="8">
+        <v>4131.2809999999999</v>
+      </c>
+      <c r="H19" s="8">
+        <v>5419.4040000000005</v>
+      </c>
+      <c r="I19" s="8">
+        <v>5061.692</v>
+      </c>
+      <c r="J19" s="8">
+        <v>5361.6090000000004</v>
+      </c>
+      <c r="K19" s="8">
+        <v>2210.6570000000002</v>
+      </c>
+      <c r="L19" s="8">
+        <v>2010.654</v>
+      </c>
+      <c r="M19" s="8">
+        <v>2350</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="1">
-        <v>1108.559</v>
-      </c>
-      <c r="C20" s="1">
-        <v>4605.3450000000003</v>
-      </c>
-      <c r="D20" s="1">
-        <v>2711.3560000000002</v>
-      </c>
-      <c r="E20" s="1">
-        <v>3736.9569999999999</v>
-      </c>
-      <c r="F20" s="1">
-        <v>6223.3109999999997</v>
-      </c>
-      <c r="G20" s="1">
-        <v>5074.8029999999999</v>
-      </c>
-      <c r="H20" s="1">
-        <v>6408.4949999999999</v>
-      </c>
-      <c r="I20" s="1">
-        <v>5795.768</v>
-      </c>
-      <c r="J20" s="1">
-        <v>6175.375</v>
-      </c>
-      <c r="K20" s="1">
-        <v>3108.99</v>
-      </c>
-      <c r="L20" s="1">
-        <v>2850</v>
+      <c r="B20" s="11">
+        <v>1144.4608495254899</v>
+      </c>
+      <c r="C20" s="11">
+        <v>4754.4939999999997</v>
+      </c>
+      <c r="D20" s="8">
+        <v>2798.79</v>
+      </c>
+      <c r="E20" s="8">
+        <v>3857.2579999999998</v>
+      </c>
+      <c r="F20" s="8">
+        <v>6420.6180000000004</v>
+      </c>
+      <c r="G20" s="8">
+        <v>5237.875</v>
+      </c>
+      <c r="H20" s="8">
+        <v>6611.6729999999998</v>
+      </c>
+      <c r="I20" s="8">
+        <v>5977.375</v>
+      </c>
+      <c r="J20" s="8">
+        <v>6369.0829999999996</v>
+      </c>
+      <c r="K20" s="8">
+        <v>3206.5590000000002</v>
+      </c>
+      <c r="L20" s="8">
+        <v>2938.6480000000001</v>
+      </c>
+      <c r="M20" s="8">
+        <v>3230</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="1">
-        <v>1257.559</v>
-      </c>
-      <c r="C21" s="1">
-        <v>5297.6670000000004</v>
-      </c>
-      <c r="D21" s="1">
-        <v>3615.1419999999998</v>
-      </c>
-      <c r="E21" s="1">
-        <v>4598.0810000000001</v>
-      </c>
-      <c r="F21" s="1">
-        <v>6951.8940000000002</v>
-      </c>
-      <c r="G21" s="1">
-        <v>5932.5159999999996</v>
-      </c>
-      <c r="H21" s="1">
-        <v>7617.9669999999996</v>
-      </c>
-      <c r="I21" s="1">
-        <v>6720.6239999999998</v>
-      </c>
-      <c r="J21" s="1">
-        <v>7129.7520000000004</v>
-      </c>
-      <c r="K21" s="1">
-        <v>3750.9349999999999</v>
-      </c>
-      <c r="L21" s="1">
-        <v>3600</v>
+      <c r="B21" s="11">
+        <v>1298.2863712877938</v>
+      </c>
+      <c r="C21" s="11">
+        <v>5469.2370000000001</v>
+      </c>
+      <c r="D21" s="8">
+        <v>3731.72</v>
+      </c>
+      <c r="E21" s="8">
+        <v>4746.1040000000003</v>
+      </c>
+      <c r="F21" s="8">
+        <v>7172.3</v>
+      </c>
+      <c r="G21" s="8">
+        <v>6123.1490000000003</v>
+      </c>
+      <c r="H21" s="8">
+        <v>7859.491</v>
+      </c>
+      <c r="I21" s="8">
+        <v>6931.2120000000004</v>
+      </c>
+      <c r="J21" s="8">
+        <v>7353.3959999999997</v>
+      </c>
+      <c r="K21" s="8">
+        <v>3868.6509999999998</v>
+      </c>
+      <c r="L21" s="8">
+        <v>3711.9769999999999</v>
+      </c>
+      <c r="M21" s="8">
+        <v>4080</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="1">
-        <v>1764.1579999999999</v>
-      </c>
-      <c r="C22" s="1">
-        <v>6095.24</v>
-      </c>
-      <c r="D22" s="1">
-        <v>3976.6559999999999</v>
-      </c>
-      <c r="E22" s="1">
-        <v>5735.4160000000002</v>
-      </c>
-      <c r="F22" s="1">
-        <v>7892.98</v>
-      </c>
-      <c r="G22" s="1">
-        <v>7033.2479999999996</v>
-      </c>
-      <c r="H22" s="1">
-        <v>8929.8700000000008</v>
-      </c>
-      <c r="I22" s="1">
-        <v>7978.4290000000001</v>
-      </c>
-      <c r="J22" s="1">
-        <v>8230.0920000000006</v>
-      </c>
-      <c r="K22" s="1">
-        <v>4608.2920000000004</v>
-      </c>
-      <c r="L22" s="1">
-        <v>4300</v>
+      <c r="B22" s="11">
+        <v>1821.2921128935754</v>
+      </c>
+      <c r="C22" s="11">
+        <v>6292.6409999999996</v>
+      </c>
+      <c r="D22" s="8">
+        <v>4104.8919999999998</v>
+      </c>
+      <c r="E22" s="8">
+        <v>5920.0519999999997</v>
+      </c>
+      <c r="F22" s="8">
+        <v>8143.223</v>
+      </c>
+      <c r="G22" s="8">
+        <v>7259.2510000000002</v>
+      </c>
+      <c r="H22" s="8">
+        <v>9212.9869999999992</v>
+      </c>
+      <c r="I22" s="8">
+        <v>8228.43</v>
+      </c>
+      <c r="J22" s="8">
+        <v>8488.25</v>
+      </c>
+      <c r="K22" s="8">
+        <v>4752.9139999999998</v>
+      </c>
+      <c r="L22" s="8">
+        <v>4433.75</v>
+      </c>
+      <c r="M22" s="8">
+        <v>4800</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="1">
-        <v>2240.9580000000001</v>
-      </c>
-      <c r="C23" s="1">
-        <v>6808.6130000000003</v>
-      </c>
-      <c r="D23" s="1">
-        <v>4627.3819999999996</v>
-      </c>
-      <c r="E23" s="1">
-        <v>6742.77</v>
-      </c>
-      <c r="F23" s="1">
-        <v>9001.0329999999994</v>
-      </c>
-      <c r="G23" s="1">
-        <v>8005.3220000000001</v>
-      </c>
-      <c r="H23" s="1">
-        <v>10702.71</v>
-      </c>
-      <c r="I23" s="1">
-        <v>9482.8619999999992</v>
-      </c>
-      <c r="J23" s="1">
-        <v>9206.9240000000009</v>
-      </c>
-      <c r="K23" s="1">
-        <v>5428.1390000000001</v>
-      </c>
-      <c r="L23" s="1">
-        <v>5030</v>
+      <c r="B23" s="11">
+        <v>2313.5337825329484</v>
+      </c>
+      <c r="C23" s="11">
+        <v>7029.1170000000002</v>
+      </c>
+      <c r="D23" s="8">
+        <v>4776.6019999999999</v>
+      </c>
+      <c r="E23" s="8">
+        <v>6959.8339999999998</v>
+      </c>
+      <c r="F23" s="8">
+        <v>9286.4060000000009</v>
+      </c>
+      <c r="G23" s="8">
+        <v>8262.5630000000001</v>
+      </c>
+      <c r="H23" s="8">
+        <v>11042.04</v>
+      </c>
+      <c r="I23" s="8">
+        <v>9780.0040000000008</v>
+      </c>
+      <c r="J23" s="8">
+        <v>9495.7240000000002</v>
+      </c>
+      <c r="K23" s="8">
+        <v>5598.49</v>
+      </c>
+      <c r="L23" s="8">
+        <v>5186.4570000000003</v>
+      </c>
+      <c r="M23" s="8">
+        <v>5620</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="1">
-        <v>2705.837</v>
-      </c>
-      <c r="C24" s="1">
-        <v>7608.5249999999996</v>
-      </c>
-      <c r="D24" s="1">
-        <v>5621.5460000000003</v>
-      </c>
-      <c r="E24" s="1">
-        <v>7964.5919999999996</v>
-      </c>
-      <c r="F24" s="1">
-        <v>10473.379999999999</v>
-      </c>
-      <c r="G24" s="1">
-        <v>9077.4639999999999</v>
-      </c>
-      <c r="H24" s="1">
-        <v>11818.95</v>
-      </c>
-      <c r="I24" s="1">
-        <v>10974.96</v>
-      </c>
-      <c r="J24" s="1">
-        <v>11003.4</v>
-      </c>
-      <c r="K24" s="1">
-        <v>6162.25</v>
-      </c>
-      <c r="L24" s="1">
-        <v>5910</v>
+      <c r="B24" s="11">
+        <v>2793.4683780452847</v>
+      </c>
+      <c r="C24" s="11">
+        <v>7854.9359999999997</v>
+      </c>
+      <c r="D24" s="8">
+        <v>5802.8249999999998</v>
+      </c>
+      <c r="E24" s="8">
+        <v>8220.99</v>
+      </c>
+      <c r="F24" s="8">
+        <v>10805.43</v>
+      </c>
+      <c r="G24" s="8">
+        <v>9369.1550000000007</v>
+      </c>
+      <c r="H24" s="8">
+        <v>12193.66</v>
+      </c>
+      <c r="I24" s="8">
+        <v>11318.86</v>
+      </c>
+      <c r="J24" s="8">
+        <v>11348.55</v>
+      </c>
+      <c r="K24" s="8">
+        <v>6355.6409999999996</v>
+      </c>
+      <c r="L24" s="8">
+        <v>6093.8289999999997</v>
+      </c>
+      <c r="M24" s="8">
+        <v>6410</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="1">
-        <v>3057.4769999999999</v>
-      </c>
-      <c r="C25" s="1">
-        <v>8887.9179999999997</v>
-      </c>
-      <c r="D25" s="1">
-        <v>7049.527</v>
-      </c>
-      <c r="E25" s="1">
-        <v>9218.9089999999997</v>
-      </c>
-      <c r="F25" s="1">
-        <v>11839.47</v>
-      </c>
-      <c r="G25" s="1">
-        <v>10721.41</v>
-      </c>
-      <c r="H25" s="1">
-        <v>13302.88</v>
-      </c>
-      <c r="I25" s="1">
-        <v>12639.71</v>
-      </c>
-      <c r="J25" s="1">
-        <v>12631.45</v>
-      </c>
-      <c r="K25" s="1">
-        <v>6923.1549999999997</v>
-      </c>
-      <c r="L25" s="1">
-        <v>6880</v>
+      <c r="B25" s="11">
+        <v>3156.4966094043225</v>
+      </c>
+      <c r="C25" s="11">
+        <v>9175.7630000000008</v>
+      </c>
+      <c r="D25" s="8">
+        <v>7276.8540000000003</v>
+      </c>
+      <c r="E25" s="8">
+        <v>9515.6869999999999</v>
+      </c>
+      <c r="F25" s="8">
+        <v>12214.83</v>
+      </c>
+      <c r="G25" s="8">
+        <v>11065.93</v>
+      </c>
+      <c r="H25" s="8">
+        <v>13724.64</v>
+      </c>
+      <c r="I25" s="8">
+        <v>13035.77</v>
+      </c>
+      <c r="J25" s="8">
+        <v>13027.67</v>
+      </c>
+      <c r="K25" s="8">
+        <v>7140.424</v>
+      </c>
+      <c r="L25" s="8">
+        <v>7094</v>
+      </c>
+      <c r="M25" s="8">
+        <v>7651</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="1">
-        <v>3719.0360000000001</v>
-      </c>
-      <c r="C26" s="1">
-        <v>10150.94</v>
-      </c>
-      <c r="D26" s="1">
-        <v>8152.1450000000004</v>
-      </c>
-      <c r="E26" s="1">
-        <v>10723.44</v>
-      </c>
-      <c r="F26" s="1">
-        <v>13068.95</v>
-      </c>
-      <c r="G26" s="1">
-        <v>12365.36</v>
-      </c>
-      <c r="H26" s="1">
-        <v>15075.72</v>
-      </c>
-      <c r="I26" s="1">
-        <v>14427.76</v>
-      </c>
-      <c r="J26" s="1">
-        <v>14124.77</v>
-      </c>
-      <c r="K26" s="1">
-        <v>7876.9639999999999</v>
-      </c>
-      <c r="L26" s="1">
-        <v>8010</v>
+      <c r="B26" s="11">
+        <v>3839.4808936429004</v>
+      </c>
+      <c r="C26" s="11">
+        <v>10479.69</v>
+      </c>
+      <c r="D26" s="8">
+        <v>8415.0290000000005</v>
+      </c>
+      <c r="E26" s="8">
+        <v>11068.65</v>
+      </c>
+      <c r="F26" s="8">
+        <v>13483.3</v>
+      </c>
+      <c r="G26" s="8">
+        <v>12762.71</v>
+      </c>
+      <c r="H26" s="8">
+        <v>15553.69</v>
+      </c>
+      <c r="I26" s="8">
+        <v>14879.85</v>
+      </c>
+      <c r="J26" s="8">
+        <v>14567.83</v>
+      </c>
+      <c r="K26" s="8">
+        <v>8124.1670000000004</v>
+      </c>
+      <c r="L26" s="8">
+        <v>8259.1479999999992</v>
+      </c>
+      <c r="M26" s="8">
+        <v>8971</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="1">
-        <v>4297.1559999999999</v>
-      </c>
-      <c r="C27" s="1">
-        <v>11261.93</v>
-      </c>
-      <c r="D27" s="1">
-        <v>10212.780000000001</v>
-      </c>
-      <c r="E27" s="1">
-        <v>11942.01</v>
-      </c>
-      <c r="F27" s="1">
-        <v>15178.81</v>
-      </c>
-      <c r="G27" s="1">
-        <v>14180.86</v>
-      </c>
-      <c r="H27" s="1">
-        <v>16835.43</v>
-      </c>
-      <c r="I27" s="1">
-        <v>16339.13</v>
-      </c>
-      <c r="J27" s="1">
-        <v>15887.56</v>
-      </c>
-      <c r="K27" s="1">
-        <v>8916.509</v>
-      </c>
-      <c r="L27" s="1">
-        <v>8800</v>
+      <c r="B27" s="11">
+        <v>4436.3239180806395</v>
+      </c>
+      <c r="C27" s="11">
+        <v>11626.66</v>
+      </c>
+      <c r="D27" s="8">
+        <v>10542.11</v>
+      </c>
+      <c r="E27" s="8">
+        <v>12326.45</v>
+      </c>
+      <c r="F27" s="8">
+        <v>15660.04</v>
+      </c>
+      <c r="G27" s="8">
+        <v>14636.54</v>
+      </c>
+      <c r="H27" s="8">
+        <v>17369.189999999999</v>
+      </c>
+      <c r="I27" s="8">
+        <v>16851.11</v>
+      </c>
+      <c r="J27" s="8">
+        <v>16385.91</v>
+      </c>
+      <c r="K27" s="8">
+        <v>9196.3349999999991</v>
+      </c>
+      <c r="L27" s="8">
+        <v>9073.7209999999995</v>
+      </c>
+      <c r="M27" s="8">
+        <v>10275</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="1">
-        <v>4905.0749999999998</v>
-      </c>
-      <c r="C28" s="1">
-        <v>12581.08</v>
-      </c>
-      <c r="D28" s="1">
-        <v>11785.36</v>
-      </c>
-      <c r="E28" s="1">
-        <v>13534.28</v>
-      </c>
-      <c r="F28" s="1">
-        <v>16696.689999999999</v>
-      </c>
-      <c r="G28" s="1">
-        <v>15867.69</v>
-      </c>
-      <c r="H28" s="1">
-        <v>19435.599999999999</v>
-      </c>
-      <c r="I28" s="1">
-        <v>17880.560000000001</v>
-      </c>
-      <c r="J28" s="1">
-        <v>18234.2</v>
-      </c>
-      <c r="K28" s="1">
-        <v>10079.299999999999</v>
-      </c>
-      <c r="L28" s="1">
-        <v>9600</v>
+      <c r="B28" s="11">
+        <v>5063.9310144847877</v>
+      </c>
+      <c r="C28" s="11">
+        <v>12988.53</v>
+      </c>
+      <c r="D28" s="8">
+        <v>12165.41</v>
+      </c>
+      <c r="E28" s="8">
+        <v>13969.98</v>
+      </c>
+      <c r="F28" s="8">
+        <v>17226.05</v>
+      </c>
+      <c r="G28" s="8">
+        <v>16377.58</v>
+      </c>
+      <c r="H28" s="8">
+        <v>20051.79</v>
+      </c>
+      <c r="I28" s="8">
+        <v>18440.84</v>
+      </c>
+      <c r="J28" s="8">
+        <v>18806.16</v>
+      </c>
+      <c r="K28" s="8">
+        <v>10395.620000000001</v>
+      </c>
+      <c r="L28" s="8">
+        <v>9898.6039999999994</v>
+      </c>
+      <c r="M28" s="8">
+        <v>11451</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="1">
-        <v>5727.5540000000001</v>
-      </c>
-      <c r="C29" s="1">
-        <v>14007.83</v>
-      </c>
-      <c r="D29" s="1">
-        <v>13864.07</v>
-      </c>
-      <c r="E29" s="1">
-        <v>14949.45</v>
-      </c>
-      <c r="F29" s="1">
-        <v>18169.03</v>
-      </c>
-      <c r="G29" s="1">
-        <v>18112.04</v>
-      </c>
-      <c r="H29" s="1">
-        <v>21799.39</v>
-      </c>
-      <c r="I29" s="1">
-        <v>20063.22</v>
-      </c>
-      <c r="J29" s="1">
-        <v>20917.68</v>
-      </c>
-      <c r="K29" s="1">
-        <v>11231.37</v>
-      </c>
-      <c r="L29" s="1">
-        <v>10600</v>
+      <c r="B29" s="11">
+        <v>5913.0468622266544</v>
+      </c>
+      <c r="C29" s="11">
+        <v>14461.48</v>
+      </c>
+      <c r="D29" s="8">
+        <v>14311.15</v>
+      </c>
+      <c r="E29" s="8">
+        <v>15430.71</v>
+      </c>
+      <c r="F29" s="8">
+        <v>18745.07</v>
+      </c>
+      <c r="G29" s="8">
+        <v>18694.05</v>
+      </c>
+      <c r="H29" s="8">
+        <v>22490.53</v>
+      </c>
+      <c r="I29" s="8">
+        <v>20691.89</v>
+      </c>
+      <c r="J29" s="8">
+        <v>21573.82</v>
+      </c>
+      <c r="K29" s="8">
+        <v>11583.85</v>
+      </c>
+      <c r="L29" s="8">
+        <v>10929.71</v>
+      </c>
+      <c r="M29" s="8">
+        <v>13041</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="1">
-        <v>6454.674</v>
-      </c>
-      <c r="C30" s="1">
-        <v>15460.3</v>
-      </c>
-      <c r="D30" s="1">
-        <v>14912.46</v>
-      </c>
-      <c r="E30" s="1">
-        <v>17141.259999999998</v>
-      </c>
-      <c r="F30" s="1">
-        <v>20597.64</v>
-      </c>
-      <c r="G30" s="1">
-        <v>20370.689999999999</v>
-      </c>
-      <c r="H30" s="1">
-        <v>24176.31</v>
-      </c>
-      <c r="I30" s="1">
-        <v>22566.5</v>
-      </c>
-      <c r="J30" s="1">
-        <v>23241.87</v>
-      </c>
-      <c r="K30" s="1">
-        <v>12646.01</v>
-      </c>
-      <c r="L30" s="1">
-        <v>12000</v>
+      <c r="B30" s="11">
+        <v>6663.7154084266976</v>
+      </c>
+      <c r="C30" s="11">
+        <v>15961</v>
+      </c>
+      <c r="D30" s="8">
+        <v>15393.35</v>
+      </c>
+      <c r="E30" s="8">
+        <v>17693.07</v>
+      </c>
+      <c r="F30" s="8">
+        <v>21250.68</v>
+      </c>
+      <c r="G30" s="8">
+        <v>21025.27</v>
+      </c>
+      <c r="H30" s="8">
+        <v>24942.81</v>
+      </c>
+      <c r="I30" s="8">
+        <v>23273.61</v>
+      </c>
+      <c r="J30" s="8">
+        <v>23970.91</v>
+      </c>
+      <c r="K30" s="8">
+        <v>13042.88</v>
+      </c>
+      <c r="L30" s="8">
+        <v>12373.26</v>
+      </c>
+      <c r="M30" s="8">
+        <v>14920</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="1">
-        <v>7634.7520000000004</v>
-      </c>
-      <c r="C31" s="1">
-        <v>17857.7</v>
-      </c>
-      <c r="D31" s="1">
-        <v>17081.54</v>
-      </c>
-      <c r="E31" s="1">
-        <v>18652.29</v>
-      </c>
-      <c r="F31" s="1">
-        <v>22813.75</v>
-      </c>
-      <c r="G31" s="1">
-        <v>22443.49</v>
-      </c>
-      <c r="H31" s="1">
-        <v>27577.54</v>
-      </c>
-      <c r="I31" s="1">
-        <v>25587.7</v>
-      </c>
-      <c r="J31" s="1">
-        <v>26610.25</v>
-      </c>
-      <c r="K31" s="1">
-        <v>14146.38</v>
-      </c>
-      <c r="L31" s="1">
-        <v>13360</v>
+      <c r="B31" s="11">
+        <v>7882.0114760120423</v>
+      </c>
+      <c r="C31" s="11">
+        <v>18436.04</v>
+      </c>
+      <c r="D31" s="8">
+        <v>17632.38</v>
+      </c>
+      <c r="E31" s="8">
+        <v>19252.75</v>
+      </c>
+      <c r="F31" s="8">
+        <v>23537.05</v>
+      </c>
+      <c r="G31" s="8">
+        <v>23164.68</v>
+      </c>
+      <c r="H31" s="8">
+        <v>28451.87</v>
+      </c>
+      <c r="I31" s="8">
+        <v>26389.48</v>
+      </c>
+      <c r="J31" s="8">
+        <v>27444.959999999999</v>
+      </c>
+      <c r="K31" s="8">
+        <v>14590.34</v>
+      </c>
+      <c r="L31" s="8">
+        <v>13775.56</v>
+      </c>
+      <c r="M31" s="8">
+        <v>16900</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" s="1">
-        <v>8939.991</v>
-      </c>
-      <c r="C32" s="1">
-        <v>20783.689999999999</v>
-      </c>
-      <c r="D32" s="1">
-        <v>18798.740000000002</v>
-      </c>
-      <c r="E32" s="1">
-        <v>20959.45</v>
-      </c>
-      <c r="F32" s="1">
-        <v>24756.639999999999</v>
-      </c>
-      <c r="G32" s="1">
-        <v>25617.03</v>
-      </c>
-      <c r="H32" s="1">
-        <v>30335.29</v>
-      </c>
-      <c r="I32" s="1">
-        <v>28855.52</v>
-      </c>
-      <c r="J32" s="1">
-        <v>29810.22</v>
-      </c>
-      <c r="K32" s="1">
-        <v>15753.93</v>
-      </c>
-      <c r="L32" s="1">
-        <v>14800</v>
+      <c r="B32" s="11">
+        <v>9229.5220142637736</v>
+      </c>
+      <c r="C32" s="11">
+        <v>21456.79</v>
+      </c>
+      <c r="D32" s="8">
+        <v>19404.95</v>
+      </c>
+      <c r="E32" s="8">
+        <v>21634.18</v>
+      </c>
+      <c r="F32" s="8">
+        <v>25541.53</v>
+      </c>
+      <c r="G32" s="8">
+        <v>26440.2</v>
+      </c>
+      <c r="H32" s="8">
+        <v>31297.06</v>
+      </c>
+      <c r="I32" s="8">
+        <v>29759.7</v>
+      </c>
+      <c r="J32" s="8">
+        <v>30745.3</v>
+      </c>
+      <c r="K32" s="8">
+        <v>16248.33</v>
+      </c>
+      <c r="L32" s="8">
+        <v>15260.35</v>
+      </c>
+      <c r="M32" s="8">
+        <v>18900</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="15" customHeight="1">
+    <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" s="1">
-        <v>10126.030000000001</v>
-      </c>
-      <c r="C33" s="1">
-        <v>22881.71</v>
-      </c>
-      <c r="D33" s="1">
-        <v>20280.95</v>
-      </c>
-      <c r="E33" s="1">
-        <v>22990.41</v>
-      </c>
-      <c r="F33" s="1">
-        <v>27170.07</v>
-      </c>
-      <c r="G33" s="1">
-        <v>28404.6</v>
-      </c>
-      <c r="H33" s="1">
-        <v>33171.839999999997</v>
-      </c>
-      <c r="I33" s="1">
-        <v>32554.95</v>
-      </c>
-      <c r="J33" s="1">
-        <v>33212.29</v>
-      </c>
-      <c r="K33" s="1">
-        <v>17361.47</v>
-      </c>
-      <c r="L33" s="1">
-        <v>16400</v>
+      <c r="B33" s="11">
+        <v>10453.972135105661</v>
+      </c>
+      <c r="C33" s="11">
+        <v>23622.76</v>
+      </c>
+      <c r="D33" s="8">
+        <v>20934.95</v>
+      </c>
+      <c r="E33" s="8">
+        <v>23730.52</v>
+      </c>
+      <c r="F33" s="8">
+        <v>28031.48</v>
+      </c>
+      <c r="G33" s="8">
+        <v>29317.34</v>
+      </c>
+      <c r="H33" s="8">
+        <v>34223.54</v>
+      </c>
+      <c r="I33" s="8">
+        <v>33575.040000000001</v>
+      </c>
+      <c r="J33" s="8">
+        <v>34254.089999999997</v>
+      </c>
+      <c r="K33" s="8">
+        <v>17906.330000000002</v>
+      </c>
+      <c r="L33" s="8">
+        <v>16910.12</v>
+      </c>
+      <c r="M33" s="8">
+        <v>21001</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="15" customHeight="1">
+    <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" s="1">
-        <v>11151.15</v>
-      </c>
-      <c r="C34" s="1">
-        <v>24692.04</v>
-      </c>
-      <c r="D34" s="1">
-        <v>23136.91</v>
-      </c>
-      <c r="E34" s="1">
-        <v>25346.31</v>
-      </c>
-      <c r="F34" s="1">
-        <v>28961.17</v>
-      </c>
-      <c r="G34" s="1">
-        <v>31163.58</v>
-      </c>
-      <c r="H34" s="1">
-        <v>36310.43</v>
-      </c>
-      <c r="I34" s="1">
-        <v>35292.519999999997</v>
-      </c>
-      <c r="J34" s="1">
-        <v>36805.24</v>
-      </c>
-      <c r="K34" s="1">
-        <v>19397.689999999999</v>
-      </c>
-      <c r="L34" s="1">
-        <v>18201</v>
+      <c r="B34" s="11">
+        <v>11512.291724830313</v>
+      </c>
+      <c r="C34" s="11">
+        <v>25491.72</v>
+      </c>
+      <c r="D34" s="8">
+        <v>23883.01</v>
+      </c>
+      <c r="E34" s="8">
+        <v>26162.27</v>
+      </c>
+      <c r="F34" s="8">
+        <v>29879.360000000001</v>
+      </c>
+      <c r="G34" s="8">
+        <v>32164.97</v>
+      </c>
+      <c r="H34" s="8">
+        <v>37461.629999999997</v>
+      </c>
+      <c r="I34" s="8">
+        <v>36398.400000000001</v>
+      </c>
+      <c r="J34" s="8">
+        <v>37959.730000000003</v>
+      </c>
+      <c r="K34" s="8">
+        <v>20006.45</v>
+      </c>
+      <c r="L34" s="8">
+        <v>18767.14</v>
+      </c>
+      <c r="M34" s="8">
+        <v>23100</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="15" customHeight="1">
+    <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" s="1">
-        <v>12027.27</v>
-      </c>
-      <c r="C35" s="1">
-        <v>26584.23</v>
-      </c>
-      <c r="D35" s="1">
-        <v>26625.52</v>
-      </c>
-      <c r="E35" s="1">
-        <v>27296.03</v>
-      </c>
-      <c r="F35" s="1">
-        <v>31587.1</v>
-      </c>
-      <c r="G35" s="1">
-        <v>34308.519999999997</v>
-      </c>
-      <c r="H35" s="1">
-        <v>39527.81</v>
-      </c>
-      <c r="I35" s="1">
-        <v>39294.07</v>
-      </c>
-      <c r="J35" s="1">
-        <v>40758.6</v>
-      </c>
-      <c r="K35" s="1">
-        <v>21755.42</v>
-      </c>
-      <c r="L35" s="1">
-        <v>20000</v>
+      <c r="B35" s="11">
+        <v>12416.785792792662</v>
+      </c>
+      <c r="C35" s="11">
+        <v>27445.19</v>
+      </c>
+      <c r="D35" s="8">
+        <v>27484.12</v>
+      </c>
+      <c r="E35" s="8">
+        <v>28174.75</v>
+      </c>
+      <c r="F35" s="8">
+        <v>32588.55</v>
+      </c>
+      <c r="G35" s="8">
+        <v>35410.980000000003</v>
+      </c>
+      <c r="H35" s="8">
+        <v>40781.019999999997</v>
+      </c>
+      <c r="I35" s="8">
+        <v>40525.33</v>
+      </c>
+      <c r="J35" s="8">
+        <v>42037.1</v>
+      </c>
+      <c r="K35" s="8">
+        <v>22438.17</v>
+      </c>
+      <c r="L35" s="8">
+        <v>20622.09</v>
+      </c>
+      <c r="M35" s="8">
+        <v>26100</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="15" customHeight="1">
+    <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" s="1">
-        <v>13117.95</v>
-      </c>
-      <c r="C36" s="1">
-        <v>29058.81</v>
-      </c>
-      <c r="D36" s="1">
-        <v>28740.38</v>
-      </c>
-      <c r="E36" s="1">
-        <v>29848.53</v>
-      </c>
-      <c r="F36" s="1">
-        <v>34288.93</v>
-      </c>
-      <c r="G36" s="1">
-        <v>37124.68</v>
-      </c>
-      <c r="H36" s="1">
-        <v>42679.53</v>
-      </c>
-      <c r="I36" s="1">
-        <v>42666.71</v>
-      </c>
-      <c r="J36" s="1">
-        <v>44911.82</v>
-      </c>
-      <c r="K36" s="1">
-        <v>25184.85</v>
-      </c>
-      <c r="L36" s="1">
-        <v>22000</v>
+      <c r="B36" s="11">
+        <v>13542.788612092727</v>
+      </c>
+      <c r="C36" s="11">
+        <v>29999.91</v>
+      </c>
+      <c r="D36" s="8">
+        <v>29667.18</v>
+      </c>
+      <c r="E36" s="8">
+        <v>30809.43</v>
+      </c>
+      <c r="F36" s="8">
+        <v>35376.04</v>
+      </c>
+      <c r="G36" s="8">
+        <v>38317.629999999997</v>
+      </c>
+      <c r="H36" s="8">
+        <v>44032.66</v>
+      </c>
+      <c r="I36" s="8">
+        <v>44003.66</v>
+      </c>
+      <c r="J36" s="8">
+        <v>46320.6</v>
+      </c>
+      <c r="K36" s="8">
+        <v>25975.23</v>
+      </c>
+      <c r="L36" s="8">
+        <v>22684.3</v>
+      </c>
+      <c r="M36" s="8">
+        <v>28500</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="15" customHeight="1">
+    <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" s="1">
-        <v>14983.43</v>
-      </c>
-      <c r="C37" s="1">
-        <v>32045.62</v>
-      </c>
-      <c r="D37" s="1">
-        <v>31270.98</v>
-      </c>
-      <c r="E37" s="1">
-        <v>32462.78</v>
-      </c>
-      <c r="F37" s="1">
-        <v>36580.93</v>
-      </c>
-      <c r="G37" s="1">
-        <v>39168.9</v>
-      </c>
-      <c r="H37" s="1">
-        <v>45161.5</v>
-      </c>
-      <c r="I37" s="1">
-        <v>46489.45</v>
-      </c>
-      <c r="J37" s="1">
-        <v>49054.94</v>
-      </c>
-      <c r="K37" s="1">
-        <v>27468.63</v>
-      </c>
-      <c r="L37" s="1">
-        <v>24300</v>
+      <c r="B37" s="11">
+        <v>15468.684144556773</v>
+      </c>
+      <c r="C37" s="11">
+        <v>33083.449999999997</v>
+      </c>
+      <c r="D37" s="8">
+        <v>32279.38</v>
+      </c>
+      <c r="E37" s="8">
+        <v>33507.83</v>
+      </c>
+      <c r="F37" s="8">
+        <v>37740.71</v>
+      </c>
+      <c r="G37" s="8">
+        <v>40427.54</v>
+      </c>
+      <c r="H37" s="8">
+        <v>46593.33</v>
+      </c>
+      <c r="I37" s="8">
+        <v>47946.18</v>
+      </c>
+      <c r="J37" s="8">
+        <v>50593.68</v>
+      </c>
+      <c r="K37" s="8">
+        <v>28330.68</v>
+      </c>
+      <c r="L37" s="8">
+        <v>25055.84</v>
+      </c>
+      <c r="M37" s="8">
+        <v>31105</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="15" customHeight="1">
+    <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" s="1">
-        <v>16187.34</v>
-      </c>
-      <c r="C38" s="1">
-        <v>34564.639999999999</v>
-      </c>
-      <c r="D38" s="1">
-        <v>34347.46</v>
-      </c>
-      <c r="E38" s="1">
-        <v>34444.99</v>
-      </c>
-      <c r="F38" s="1">
-        <v>39358.65</v>
-      </c>
-      <c r="G38" s="1">
-        <v>42170.89</v>
-      </c>
-      <c r="H38" s="1">
-        <v>48326.36</v>
-      </c>
-      <c r="I38" s="1">
-        <v>49190.04</v>
-      </c>
-      <c r="J38" s="1">
-        <v>54264.71</v>
-      </c>
-      <c r="K38" s="1">
-        <v>30554.05</v>
-      </c>
-      <c r="L38" s="1">
-        <v>27000</v>
+      <c r="B38" s="11">
+        <v>16711.584036535667</v>
+      </c>
+      <c r="C38" s="11">
+        <v>35684.050000000003</v>
+      </c>
+      <c r="D38" s="8">
+        <v>35455.07</v>
+      </c>
+      <c r="E38" s="8">
+        <v>35553.85</v>
+      </c>
+      <c r="F38" s="8">
+        <v>40606.5</v>
+      </c>
+      <c r="G38" s="8">
+        <v>43526</v>
+      </c>
+      <c r="H38" s="8">
+        <v>49858.52</v>
+      </c>
+      <c r="I38" s="8">
+        <v>50731.38</v>
+      </c>
+      <c r="J38" s="8">
+        <v>55966.87</v>
+      </c>
+      <c r="K38" s="8">
+        <v>31512.92</v>
+      </c>
+      <c r="L38" s="8">
+        <v>27839.83</v>
+      </c>
+      <c r="M38" s="8">
+        <v>34220</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="15" customHeight="1">
+    <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" s="1">
-        <v>17468.740000000002</v>
-      </c>
-      <c r="C39" s="1">
-        <v>37354.980000000003</v>
-      </c>
-      <c r="D39" s="1">
-        <v>37235.96</v>
-      </c>
-      <c r="E39" s="1">
-        <v>36719.660000000003</v>
-      </c>
-      <c r="F39" s="1">
-        <v>41438.14</v>
-      </c>
-      <c r="G39" s="1">
-        <v>45272.959999999999</v>
-      </c>
-      <c r="H39" s="1">
-        <v>51872.04</v>
-      </c>
-      <c r="I39" s="1">
-        <v>52519.519999999997</v>
-      </c>
-      <c r="J39" s="1">
-        <v>58632.38</v>
-      </c>
-      <c r="K39" s="1">
-        <v>32960</v>
-      </c>
-      <c r="L39" s="1">
-        <v>30001</v>
+      <c r="B39" s="11">
+        <v>18034.483523691484</v>
+      </c>
+      <c r="C39" s="11">
+        <v>38564.76</v>
+      </c>
+      <c r="D39" s="8">
+        <v>38436.720000000001</v>
+      </c>
+      <c r="E39" s="8">
+        <v>37901.75</v>
+      </c>
+      <c r="F39" s="8">
+        <v>42751.92</v>
+      </c>
+      <c r="G39" s="8">
+        <v>46727.74</v>
+      </c>
+      <c r="H39" s="8">
+        <v>53516.62</v>
+      </c>
+      <c r="I39" s="8">
+        <v>54165.2</v>
+      </c>
+      <c r="J39" s="8">
+        <v>60471.54</v>
+      </c>
+      <c r="K39" s="8">
+        <v>33994.39</v>
+      </c>
+      <c r="L39" s="8">
+        <v>30934.17</v>
+      </c>
+      <c r="M39" s="8">
+        <v>38070</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="15" customHeight="1">
+    <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" s="1">
-        <v>18583.259999999998</v>
-      </c>
-      <c r="C40" s="1">
-        <v>40720.699999999997</v>
-      </c>
-      <c r="D40" s="1">
-        <v>39947.32</v>
-      </c>
-      <c r="E40" s="1">
-        <v>39936.69</v>
-      </c>
-      <c r="F40" s="1">
-        <v>44777.48</v>
-      </c>
-      <c r="G40" s="1">
-        <v>49032.6</v>
-      </c>
-      <c r="H40" s="1">
-        <v>55417.72</v>
-      </c>
-      <c r="I40" s="1">
-        <v>55553.05</v>
-      </c>
-      <c r="J40" s="1">
-        <v>63224.62</v>
-      </c>
-      <c r="K40" s="1">
-        <v>36544.82</v>
-      </c>
-      <c r="L40" s="1">
-        <v>32350</v>
+      <c r="B40" s="11">
+        <v>19185.098426473516</v>
+      </c>
+      <c r="C40" s="11">
+        <v>42039.48</v>
+      </c>
+      <c r="D40" s="8">
+        <v>41235.51</v>
+      </c>
+      <c r="E40" s="8">
+        <v>41222.339999999997</v>
+      </c>
+      <c r="F40" s="8">
+        <v>46197.13</v>
+      </c>
+      <c r="G40" s="8">
+        <v>50608.2</v>
+      </c>
+      <c r="H40" s="8">
+        <v>57174.71</v>
+      </c>
+      <c r="I40" s="8">
+        <v>57293.78</v>
+      </c>
+      <c r="J40" s="8">
+        <v>65207.82</v>
+      </c>
+      <c r="K40" s="8">
+        <v>37691.71</v>
+      </c>
+      <c r="L40" s="8">
+        <v>33356.230000000003</v>
+      </c>
+      <c r="M40" s="8">
+        <v>41360</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="15" customHeight="1">
+    <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" s="1">
-        <v>19995.78</v>
-      </c>
-      <c r="C41" s="1">
-        <v>43576.52</v>
-      </c>
-      <c r="D41" s="1">
-        <v>43562.46</v>
-      </c>
-      <c r="E41" s="1">
-        <v>42812.52</v>
-      </c>
-      <c r="F41" s="1">
-        <v>47752.53</v>
-      </c>
-      <c r="G41" s="1">
-        <v>53263.98</v>
-      </c>
-      <c r="H41" s="1">
-        <v>60447.34</v>
-      </c>
-      <c r="I41" s="1">
-        <v>58857.87</v>
-      </c>
-      <c r="J41" s="1">
-        <v>67704.570000000007</v>
-      </c>
-      <c r="K41" s="1">
-        <v>39642.03</v>
-      </c>
-      <c r="L41" s="1">
-        <v>35200</v>
+      <c r="B41" s="11">
+        <v>20643.364372780157</v>
+      </c>
+      <c r="C41" s="11">
+        <v>44987.8</v>
+      </c>
+      <c r="D41" s="8">
+        <v>44967.23</v>
+      </c>
+      <c r="E41" s="8">
+        <v>44190.76</v>
+      </c>
+      <c r="F41" s="8">
+        <v>49266.5</v>
+      </c>
+      <c r="G41" s="8">
+        <v>54975.55</v>
+      </c>
+      <c r="H41" s="8">
+        <v>62363.79</v>
+      </c>
+      <c r="I41" s="8">
+        <v>60702.16</v>
+      </c>
+      <c r="J41" s="8">
+        <v>69828.3</v>
+      </c>
+      <c r="K41" s="8">
+        <v>40886.11</v>
+      </c>
+      <c r="L41" s="8">
+        <v>36294.879999999997</v>
+      </c>
+      <c r="M41" s="8">
+        <v>45030</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="15" customHeight="1">
+    <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" s="1">
-        <v>21366.58</v>
-      </c>
-      <c r="C42" s="1">
-        <v>47386.63</v>
-      </c>
-      <c r="D42" s="1">
-        <v>46472.65</v>
-      </c>
-      <c r="E42" s="1">
-        <v>46516.98</v>
-      </c>
-      <c r="F42" s="1">
-        <v>51425.8</v>
-      </c>
-      <c r="G42" s="1">
-        <v>57037.919999999998</v>
-      </c>
-      <c r="H42" s="1">
-        <v>65266.84</v>
-      </c>
-      <c r="I42" s="1">
-        <v>64741.19</v>
-      </c>
-      <c r="J42" s="1">
-        <v>72886.27</v>
-      </c>
-      <c r="K42" s="1">
-        <v>42546.32</v>
-      </c>
-      <c r="L42" s="1">
-        <v>38180</v>
+      <c r="B42" s="11">
+        <v>22058.559172993359</v>
+      </c>
+      <c r="C42" s="11">
+        <v>48921.3</v>
+      </c>
+      <c r="D42" s="8">
+        <v>47971.26</v>
+      </c>
+      <c r="E42" s="8">
+        <v>48014.47</v>
+      </c>
+      <c r="F42" s="8">
+        <v>53056.23</v>
+      </c>
+      <c r="G42" s="8">
+        <v>58870.76</v>
+      </c>
+      <c r="H42" s="8">
+        <v>67336.09</v>
+      </c>
+      <c r="I42" s="8">
+        <v>66769.83</v>
+      </c>
+      <c r="J42" s="8">
+        <v>75172.55</v>
+      </c>
+      <c r="K42" s="8">
+        <v>43881.55</v>
+      </c>
+      <c r="L42" s="8">
+        <v>39367.57</v>
+      </c>
+      <c r="M42" s="8">
+        <v>49100</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="15" customHeight="1">
+    <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" s="1">
-        <v>23100.94</v>
-      </c>
-      <c r="C43" s="1">
-        <v>49877.59</v>
-      </c>
-      <c r="D43" s="1">
-        <v>49672.05</v>
-      </c>
-      <c r="E43" s="1">
-        <v>49896.49</v>
-      </c>
-      <c r="F43" s="1">
-        <v>55372.29</v>
-      </c>
-      <c r="G43" s="1">
-        <v>60783.27</v>
-      </c>
-      <c r="H43" s="1">
-        <v>68746.87</v>
-      </c>
-      <c r="I43" s="1">
-        <v>69302.59</v>
-      </c>
-      <c r="J43" s="1">
-        <v>78371.13</v>
-      </c>
-      <c r="K43" s="1">
-        <v>45868.58</v>
-      </c>
-      <c r="L43" s="1">
-        <v>41600</v>
+      <c r="B43" s="11">
+        <v>23849.088246306575</v>
+      </c>
+      <c r="C43" s="11">
+        <v>51492.93</v>
+      </c>
+      <c r="D43" s="8">
+        <v>51273.84</v>
+      </c>
+      <c r="E43" s="8">
+        <v>51502.78</v>
+      </c>
+      <c r="F43" s="8">
+        <v>57127.839999999997</v>
+      </c>
+      <c r="G43" s="8">
+        <v>62736.46</v>
+      </c>
+      <c r="H43" s="8">
+        <v>70926.45</v>
+      </c>
+      <c r="I43" s="8">
+        <v>71474.149999999994</v>
+      </c>
+      <c r="J43" s="8">
+        <v>80829.45</v>
+      </c>
+      <c r="K43" s="8">
+        <v>47308.07</v>
+      </c>
+      <c r="L43" s="8">
+        <v>42893.95</v>
+      </c>
+      <c r="M43" s="8">
+        <v>53900</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="15" customHeight="1">
+    <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" s="1">
-        <v>24441.94</v>
-      </c>
-      <c r="C44" s="1">
-        <v>52712.37</v>
-      </c>
-      <c r="D44" s="1">
-        <v>54697.1</v>
-      </c>
-      <c r="E44" s="1">
-        <v>53129.77</v>
-      </c>
-      <c r="F44" s="1">
-        <v>59242.89</v>
-      </c>
-      <c r="G44" s="1">
-        <v>65043.24</v>
-      </c>
-      <c r="H44" s="1">
-        <v>73014.820000000007</v>
-      </c>
-      <c r="I44" s="1">
-        <v>73285.63</v>
-      </c>
-      <c r="J44" s="1">
-        <v>83311.429999999993</v>
-      </c>
-      <c r="K44" s="1">
-        <v>49790.98</v>
-      </c>
-      <c r="L44" s="1">
-        <v>45000</v>
+      <c r="B44" s="11">
+        <v>25233.517942167309</v>
+      </c>
+      <c r="C44" s="11">
+        <v>54419.519999999997</v>
+      </c>
+      <c r="D44" s="8">
+        <v>56460.93</v>
+      </c>
+      <c r="E44" s="8">
+        <v>54840.14</v>
+      </c>
+      <c r="F44" s="8">
+        <v>61121.15</v>
+      </c>
+      <c r="G44" s="8">
+        <v>67133.320000000007</v>
+      </c>
+      <c r="H44" s="8">
+        <v>75329.72</v>
+      </c>
+      <c r="I44" s="8">
+        <v>75582.009999999995</v>
+      </c>
+      <c r="J44" s="8">
+        <v>85924.71</v>
+      </c>
+      <c r="K44" s="8">
+        <v>51353.57</v>
+      </c>
+      <c r="L44" s="8">
+        <v>46399.71</v>
+      </c>
+      <c r="M44" s="8">
+        <v>58500</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="15" customHeight="1">
+    <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" s="1">
-        <v>25800.81</v>
-      </c>
-      <c r="C45" s="1">
-        <v>56716.61</v>
-      </c>
-      <c r="D45" s="1">
-        <v>58709.91</v>
-      </c>
-      <c r="E45" s="1">
-        <v>56038.1</v>
-      </c>
-      <c r="F45" s="1">
-        <v>62536.69</v>
-      </c>
-      <c r="G45" s="1">
-        <v>69903.62</v>
-      </c>
-      <c r="H45" s="1">
-        <v>77440.36</v>
-      </c>
-      <c r="I45" s="1">
-        <v>78119.55</v>
-      </c>
-      <c r="J45" s="1">
-        <v>88173.13</v>
-      </c>
-      <c r="K45" s="1">
-        <v>53595.5</v>
-      </c>
-      <c r="L45" s="1">
-        <v>50000</v>
+      <c r="B45" s="11">
+        <v>26636.396376779005</v>
+      </c>
+      <c r="C45" s="11">
+        <v>58553.440000000002</v>
+      </c>
+      <c r="D45" s="8">
+        <v>60603.14</v>
+      </c>
+      <c r="E45" s="8">
+        <v>57842.09</v>
+      </c>
+      <c r="F45" s="8">
+        <v>64519.38</v>
+      </c>
+      <c r="G45" s="8">
+        <v>72149.88</v>
+      </c>
+      <c r="H45" s="8">
+        <v>79895.56</v>
+      </c>
+      <c r="I45" s="8">
+        <v>80567.39</v>
+      </c>
+      <c r="J45" s="8">
+        <v>90938.92</v>
+      </c>
+      <c r="K45" s="8">
+        <v>55277.49</v>
+      </c>
+      <c r="L45" s="8">
+        <v>51555.23</v>
+      </c>
+      <c r="M45" s="8">
+        <v>63000</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="15" customHeight="1">
+    <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" s="1">
-        <v>27684.17</v>
-      </c>
-      <c r="C46" s="1">
-        <v>60150.15</v>
-      </c>
-      <c r="D46" s="1">
-        <v>62325.05</v>
-      </c>
-      <c r="E46" s="1">
-        <v>59027.66</v>
-      </c>
-      <c r="F46" s="1">
-        <v>65906.38</v>
-      </c>
-      <c r="G46" s="1">
-        <v>73477.42</v>
-      </c>
-      <c r="H46" s="1">
-        <v>82469.98</v>
-      </c>
-      <c r="I46" s="1">
-        <v>82916.47</v>
-      </c>
-      <c r="J46" s="1">
-        <v>95886.74</v>
-      </c>
-      <c r="K46" s="1">
-        <v>57303.57</v>
-      </c>
-      <c r="L46" s="1">
-        <v>53820</v>
+      <c r="B46" s="11">
+        <v>28580.750971854523</v>
+      </c>
+      <c r="C46" s="11">
+        <v>62098.18</v>
+      </c>
+      <c r="D46" s="8">
+        <v>64334.86</v>
+      </c>
+      <c r="E46" s="8">
+        <v>60927.9</v>
+      </c>
+      <c r="F46" s="8">
+        <v>67995.91</v>
+      </c>
+      <c r="G46" s="8">
+        <v>75838.52</v>
+      </c>
+      <c r="H46" s="8">
+        <v>85084.65</v>
+      </c>
+      <c r="I46" s="8">
+        <v>85514.63</v>
+      </c>
+      <c r="J46" s="8">
+        <v>98894.48</v>
+      </c>
+      <c r="K46" s="8">
+        <v>59101.93</v>
+      </c>
+      <c r="L46" s="8">
+        <v>55494.05</v>
+      </c>
+      <c r="M46" s="8">
+        <v>67000</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="15" customHeight="1">
+    <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" s="1">
-        <v>30223.13</v>
-      </c>
-      <c r="C47" s="1">
-        <v>63286.65</v>
-      </c>
-      <c r="D47" s="1">
-        <v>65705.2</v>
-      </c>
-      <c r="E47" s="1">
-        <v>61741.02</v>
-      </c>
-      <c r="F47" s="1">
-        <v>69063.58</v>
-      </c>
-      <c r="G47" s="1">
-        <v>77194.179999999993</v>
-      </c>
-      <c r="H47" s="1">
-        <v>89193.64</v>
-      </c>
-      <c r="I47" s="1">
-        <v>87429.77</v>
-      </c>
-      <c r="J47" s="1">
-        <v>101904.9</v>
-      </c>
-      <c r="K47" s="1">
-        <v>61302.07</v>
-      </c>
-      <c r="L47" s="1">
-        <v>58700</v>
+      <c r="B47" s="11">
+        <v>31201.937862684186</v>
+      </c>
+      <c r="C47" s="11">
+        <v>65336.26</v>
+      </c>
+      <c r="D47" s="8">
+        <v>67824.02</v>
+      </c>
+      <c r="E47" s="8">
+        <v>63728.61</v>
+      </c>
+      <c r="F47" s="8">
+        <v>71253.2</v>
+      </c>
+      <c r="G47" s="8">
+        <v>79674.710000000006</v>
+      </c>
+      <c r="H47" s="8">
+        <v>92021.48</v>
+      </c>
+      <c r="I47" s="8">
+        <v>90169.34</v>
+      </c>
+      <c r="J47" s="8">
+        <v>105101.4</v>
+      </c>
+      <c r="K47" s="8">
+        <v>63225.91</v>
+      </c>
+      <c r="L47" s="8">
+        <v>60525.84</v>
+      </c>
+      <c r="M47" s="8">
+        <v>71501</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="15" customHeight="1">
+    <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" s="1">
-        <v>32547.53</v>
-      </c>
-      <c r="C48" s="1">
-        <v>66205.63</v>
-      </c>
-      <c r="D48" s="1">
-        <v>68561.16</v>
-      </c>
-      <c r="E48" s="1">
-        <v>65477.98</v>
-      </c>
-      <c r="F48" s="1">
-        <v>73222.570000000007</v>
-      </c>
-      <c r="G48" s="1">
-        <v>83198.17</v>
-      </c>
-      <c r="H48" s="1">
-        <v>94223.27</v>
-      </c>
-      <c r="I48" s="1">
-        <v>93348.85</v>
-      </c>
-      <c r="J48" s="1">
-        <v>108237.5</v>
-      </c>
-      <c r="K48" s="1">
-        <v>65244.84</v>
-      </c>
-      <c r="L48" s="1">
-        <v>62390</v>
+      <c r="B48" s="11">
+        <v>33601.616002176132</v>
+      </c>
+      <c r="C48" s="11">
+        <v>68349.77</v>
+      </c>
+      <c r="D48" s="8">
+        <v>70772.070000000007</v>
+      </c>
+      <c r="E48" s="8">
+        <v>67585.86</v>
+      </c>
+      <c r="F48" s="8">
+        <v>75544.05</v>
+      </c>
+      <c r="G48" s="8">
+        <v>85871.63</v>
+      </c>
+      <c r="H48" s="8">
+        <v>97210.559999999998</v>
+      </c>
+      <c r="I48" s="8">
+        <v>96273.9</v>
+      </c>
+      <c r="J48" s="8">
+        <v>111632.6</v>
+      </c>
+      <c r="K48" s="8">
+        <v>67292.41</v>
+      </c>
+      <c r="L48" s="8">
+        <v>64330.62</v>
+      </c>
+      <c r="M48" s="8">
+        <v>76960</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="15" customHeight="1">
+    <row r="49" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" s="1">
-        <v>33679.93</v>
-      </c>
-      <c r="C49" s="1">
-        <v>69968.960000000006</v>
-      </c>
-      <c r="D49" s="1">
-        <v>73387.38</v>
-      </c>
-      <c r="E49" s="1">
-        <v>69507.39</v>
-      </c>
-      <c r="F49" s="1">
-        <v>76652.98</v>
-      </c>
-      <c r="G49" s="1">
-        <v>87801.23</v>
-      </c>
-      <c r="H49" s="1">
-        <v>98425.55</v>
-      </c>
-      <c r="I49" s="1">
-        <v>99144.62</v>
-      </c>
-      <c r="J49" s="1">
-        <v>114076</v>
-      </c>
-      <c r="K49" s="1">
-        <v>68912.179999999993</v>
-      </c>
-      <c r="L49" s="1">
-        <v>67430</v>
+      <c r="B49" s="11">
+        <v>34770.68996756964</v>
+      </c>
+      <c r="C49" s="11">
+        <v>72234.98</v>
+      </c>
+      <c r="D49" s="8">
+        <v>75753.919999999998</v>
+      </c>
+      <c r="E49" s="8">
+        <v>71744.990000000005</v>
+      </c>
+      <c r="F49" s="8">
+        <v>79083.23</v>
+      </c>
+      <c r="G49" s="8">
+        <v>90622.6</v>
+      </c>
+      <c r="H49" s="8">
+        <v>101546.1</v>
+      </c>
+      <c r="I49" s="8">
+        <v>102251.3</v>
+      </c>
+      <c r="J49" s="8">
+        <v>117654.3</v>
+      </c>
+      <c r="K49" s="8">
+        <v>71074.850000000006</v>
+      </c>
+      <c r="L49" s="8">
+        <v>69527.38</v>
+      </c>
+      <c r="M49" s="8">
+        <v>81750</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="15" customHeight="1">
+    <row r="50" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" s="1">
-        <v>35676.519999999997</v>
-      </c>
-      <c r="C50" s="1">
-        <v>73463.320000000007</v>
-      </c>
-      <c r="D50" s="1">
-        <v>78249.75</v>
-      </c>
-      <c r="E50" s="1">
-        <v>73115.990000000005</v>
-      </c>
-      <c r="F50" s="1">
-        <v>79688.740000000005</v>
-      </c>
-      <c r="G50" s="1">
-        <v>92961.8</v>
-      </c>
-      <c r="H50" s="1">
-        <v>101905.60000000001</v>
-      </c>
-      <c r="I50" s="1">
-        <v>103953.9</v>
-      </c>
-      <c r="J50" s="1">
-        <v>120251.4</v>
-      </c>
-      <c r="K50" s="1">
-        <v>72553.8</v>
-      </c>
-      <c r="L50" s="1">
-        <v>71400</v>
+      <c r="B50" s="11">
+        <v>36831.941635323987</v>
+      </c>
+      <c r="C50" s="11">
+        <v>75842.509999999995</v>
+      </c>
+      <c r="D50" s="8">
+        <v>80773.09</v>
+      </c>
+      <c r="E50" s="8">
+        <v>75469.77</v>
+      </c>
+      <c r="F50" s="8">
+        <v>82215.23</v>
+      </c>
+      <c r="G50" s="8">
+        <v>95949.01</v>
+      </c>
+      <c r="H50" s="8">
+        <v>105136.4</v>
+      </c>
+      <c r="I50" s="8">
+        <v>107211.2</v>
+      </c>
+      <c r="J50" s="8">
+        <v>124023.4</v>
+      </c>
+      <c r="K50" s="8">
+        <v>74830.759999999995</v>
+      </c>
+      <c r="L50" s="8">
+        <v>73620.88</v>
+      </c>
+      <c r="M50" s="8">
+        <v>87000</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="15" customHeight="1">
+    <row r="51" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" s="1">
-        <v>36993.68</v>
-      </c>
-      <c r="C51" s="1">
-        <v>77149.460000000006</v>
-      </c>
-      <c r="D51" s="1">
-        <v>81340.7</v>
-      </c>
-      <c r="E51" s="1">
-        <v>76672.600000000006</v>
-      </c>
-      <c r="F51" s="1">
-        <v>83301.3</v>
-      </c>
-      <c r="G51" s="1">
-        <v>97922.240000000005</v>
-      </c>
-      <c r="H51" s="1">
-        <v>107421.1</v>
-      </c>
-      <c r="I51" s="1">
-        <v>108886.39999999999</v>
-      </c>
-      <c r="J51" s="1">
-        <v>127381.2</v>
-      </c>
-      <c r="K51" s="1">
-        <v>77580.05</v>
-      </c>
-      <c r="L51" s="1">
-        <v>76950</v>
+      <c r="B51" s="11">
+        <v>38191.759247702765</v>
+      </c>
+      <c r="C51" s="11">
+        <v>79648.03</v>
+      </c>
+      <c r="D51" s="8">
+        <v>83963.7</v>
+      </c>
+      <c r="E51" s="8">
+        <v>79140.87</v>
+      </c>
+      <c r="F51" s="8">
+        <v>85942.32</v>
+      </c>
+      <c r="G51" s="8">
+        <v>101068.8</v>
+      </c>
+      <c r="H51" s="8">
+        <v>110826.8</v>
+      </c>
+      <c r="I51" s="8">
+        <v>112298.4</v>
+      </c>
+      <c r="J51" s="8">
+        <v>131376.79999999999</v>
+      </c>
+      <c r="K51" s="8">
+        <v>80014.75</v>
+      </c>
+      <c r="L51" s="8">
+        <v>79343.5</v>
+      </c>
+      <c r="M51" s="8">
+        <v>92000</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="15" customHeight="1">
+    <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" s="1">
-        <v>39741.24</v>
-      </c>
-      <c r="C52" s="1">
-        <v>80150.3</v>
-      </c>
-      <c r="D52" s="1">
-        <v>85064.29</v>
-      </c>
-      <c r="E52" s="1">
-        <v>80750.759999999995</v>
-      </c>
-      <c r="F52" s="1">
-        <v>87733.51</v>
-      </c>
-      <c r="G52" s="1">
-        <v>102496.7</v>
-      </c>
-      <c r="H52" s="1">
-        <v>113908.4</v>
-      </c>
-      <c r="I52" s="1">
-        <v>114805.5</v>
-      </c>
-      <c r="J52" s="1">
-        <v>135858.29999999999</v>
-      </c>
-      <c r="K52" s="1">
-        <v>82520.570000000007</v>
-      </c>
-      <c r="L52" s="1">
-        <v>81400</v>
+      <c r="B52" s="11">
+        <v>41028.301868999646</v>
+      </c>
+      <c r="C52" s="11">
+        <v>82746.05</v>
+      </c>
+      <c r="D52" s="8">
+        <v>87807.38</v>
+      </c>
+      <c r="E52" s="8">
+        <v>83350.3</v>
+      </c>
+      <c r="F52" s="8">
+        <v>90515.05</v>
+      </c>
+      <c r="G52" s="8">
+        <v>105790.3</v>
+      </c>
+      <c r="H52" s="8">
+        <v>117519.8</v>
+      </c>
+      <c r="I52" s="8">
+        <v>118402.9</v>
+      </c>
+      <c r="J52" s="8">
+        <v>140119.79999999999</v>
+      </c>
+      <c r="K52" s="8">
+        <v>85110.31</v>
+      </c>
+      <c r="L52" s="8">
+        <v>83931.92</v>
+      </c>
+      <c r="M52" s="8">
+        <v>97300</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="15" customHeight="1">
+    <row r="53" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" s="1">
-        <v>41129.919999999998</v>
-      </c>
-      <c r="C53" s="1">
-        <v>83703.13</v>
-      </c>
-      <c r="D53" s="1">
-        <v>90595.46</v>
-      </c>
-      <c r="E53" s="1">
-        <v>84812.66</v>
-      </c>
-      <c r="F53" s="1">
-        <v>91513.03</v>
-      </c>
-      <c r="G53" s="1">
-        <v>107928.9</v>
-      </c>
-      <c r="H53" s="1">
-        <v>120815.9</v>
-      </c>
-      <c r="I53" s="1">
-        <v>121587.8</v>
-      </c>
-      <c r="J53" s="1">
-        <v>144167</v>
-      </c>
-      <c r="K53" s="1">
-        <v>87825.47</v>
-      </c>
-      <c r="L53" s="1">
-        <v>86400</v>
+      <c r="B53" s="11">
+        <v>42461.955731824317</v>
+      </c>
+      <c r="C53" s="11">
+        <v>86413.95</v>
+      </c>
+      <c r="D53" s="8">
+        <v>93516.91</v>
+      </c>
+      <c r="E53" s="8">
+        <v>87542.98</v>
+      </c>
+      <c r="F53" s="8">
+        <v>94414.41</v>
+      </c>
+      <c r="G53" s="8">
+        <v>111397</v>
+      </c>
+      <c r="H53" s="8">
+        <v>124646.3</v>
+      </c>
+      <c r="I53" s="8">
+        <v>125397.7</v>
+      </c>
+      <c r="J53" s="8">
+        <v>148689.1</v>
+      </c>
+      <c r="K53" s="8">
+        <v>90581.7</v>
+      </c>
+      <c r="L53" s="8">
+        <v>89087.45</v>
+      </c>
+      <c r="M53" s="8">
+        <v>102400</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="15" customHeight="1">
+    <row r="54" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" s="1">
-        <v>42667.6</v>
-      </c>
-      <c r="C54" s="1">
-        <v>87316.77</v>
-      </c>
-      <c r="D54" s="1">
-        <v>95747.03</v>
-      </c>
-      <c r="E54" s="1">
-        <v>89345.76</v>
-      </c>
-      <c r="F54" s="1">
-        <v>96294.36</v>
-      </c>
-      <c r="G54" s="1">
-        <v>113289.60000000001</v>
-      </c>
-      <c r="H54" s="1">
-        <v>127158.7</v>
-      </c>
-      <c r="I54" s="1">
-        <v>128172.8</v>
-      </c>
-      <c r="J54" s="1">
-        <v>150454.6</v>
-      </c>
-      <c r="K54" s="1">
-        <v>94094.89</v>
-      </c>
-      <c r="L54" s="1">
-        <v>90600</v>
+      <c r="B54" s="11">
+        <v>44049.435116411296</v>
+      </c>
+      <c r="C54" s="11">
+        <v>90144.62</v>
+      </c>
+      <c r="D54" s="8">
+        <v>98834.61</v>
+      </c>
+      <c r="E54" s="8">
+        <v>92222</v>
+      </c>
+      <c r="F54" s="8">
+        <v>99347.32</v>
+      </c>
+      <c r="G54" s="8">
+        <v>116930</v>
+      </c>
+      <c r="H54" s="8">
+        <v>131190.20000000001</v>
+      </c>
+      <c r="I54" s="8">
+        <v>132189</v>
+      </c>
+      <c r="J54" s="8">
+        <v>155174</v>
+      </c>
+      <c r="K54" s="8">
+        <v>97047.87</v>
+      </c>
+      <c r="L54" s="8">
+        <v>93418.08</v>
+      </c>
+      <c r="M54" s="8">
+        <v>107180</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="15" customHeight="1">
+    <row r="55" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" s="1">
-        <v>44705.919999999998</v>
-      </c>
-      <c r="C55" s="1">
-        <v>91727.98</v>
-      </c>
-      <c r="D55" s="1">
-        <v>99597.16</v>
-      </c>
-      <c r="E55" s="1">
-        <v>92887.74</v>
-      </c>
-      <c r="F55" s="1">
-        <v>100362.3</v>
-      </c>
-      <c r="G55" s="1">
-        <v>119493.7</v>
-      </c>
-      <c r="H55" s="1">
-        <v>132503.5</v>
-      </c>
-      <c r="I55" s="1">
-        <v>135276.9</v>
-      </c>
-      <c r="J55" s="1">
-        <v>158359.1</v>
-      </c>
-      <c r="K55" s="1">
-        <v>99346.2</v>
-      </c>
-      <c r="L55" s="1">
-        <v>97600</v>
+      <c r="B55" s="11">
+        <v>46153.768254119619</v>
+      </c>
+      <c r="C55" s="11">
+        <v>94698.7</v>
+      </c>
+      <c r="D55" s="8">
+        <v>102808.9</v>
+      </c>
+      <c r="E55" s="8">
+        <v>95878.01</v>
+      </c>
+      <c r="F55" s="8">
+        <v>103544.2</v>
+      </c>
+      <c r="G55" s="8">
+        <v>123333.5</v>
+      </c>
+      <c r="H55" s="8">
+        <v>136704.5</v>
+      </c>
+      <c r="I55" s="8">
+        <v>139515.79999999999</v>
+      </c>
+      <c r="J55" s="8">
+        <v>163326.39999999999</v>
+      </c>
+      <c r="K55" s="8">
+        <v>102464</v>
+      </c>
+      <c r="L55" s="8">
+        <v>100635.8</v>
+      </c>
+      <c r="M55" s="8">
+        <v>113000</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="15" customHeight="1">
+    <row r="56" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" s="1">
-        <v>46011.16</v>
-      </c>
-      <c r="C56" s="1">
-        <v>95220.01</v>
-      </c>
-      <c r="D56" s="1">
-        <v>105453.7</v>
-      </c>
-      <c r="E56" s="1">
-        <v>96315.99</v>
-      </c>
-      <c r="F56" s="1">
-        <v>103807.9</v>
-      </c>
-      <c r="G56" s="1">
-        <v>124511.4</v>
-      </c>
-      <c r="H56" s="1">
-        <v>137493.70000000001</v>
-      </c>
-      <c r="I56" s="1">
-        <v>144400.9</v>
-      </c>
-      <c r="J56" s="1">
-        <v>165006</v>
-      </c>
-      <c r="K56" s="1">
-        <v>105551.3</v>
-      </c>
-      <c r="L56" s="1">
-        <v>104300</v>
+      <c r="B56" s="11">
+        <v>47501.279824757403</v>
+      </c>
+      <c r="C56" s="11">
+        <v>98303.8</v>
+      </c>
+      <c r="D56" s="8">
+        <v>108854.3</v>
+      </c>
+      <c r="E56" s="8">
+        <v>99416.63</v>
+      </c>
+      <c r="F56" s="8">
+        <v>107099</v>
+      </c>
+      <c r="G56" s="8">
+        <v>128512.4</v>
+      </c>
+      <c r="H56" s="8">
+        <v>141852.9</v>
+      </c>
+      <c r="I56" s="8">
+        <v>148925.70000000001</v>
+      </c>
+      <c r="J56" s="8">
+        <v>170181.9</v>
+      </c>
+      <c r="K56" s="8">
+        <v>108863.8</v>
+      </c>
+      <c r="L56" s="8">
+        <v>107544.2</v>
+      </c>
+      <c r="M56" s="8">
+        <v>119800</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="15" customHeight="1">
+    <row r="57" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" s="1">
-        <v>47912.39</v>
-      </c>
-      <c r="C57" s="1">
-        <v>99535.32</v>
-      </c>
-      <c r="D57" s="1">
-        <v>109719.6</v>
-      </c>
-      <c r="E57" s="1">
-        <v>101027.8</v>
-      </c>
-      <c r="F57" s="1">
-        <v>107617.8</v>
-      </c>
-      <c r="G57" s="1">
-        <v>129300.3</v>
-      </c>
-      <c r="H57" s="1">
-        <v>144716.4</v>
-      </c>
-      <c r="I57" s="1">
-        <v>153402.9</v>
-      </c>
-      <c r="J57" s="1">
-        <v>174707</v>
-      </c>
-      <c r="K57" s="1">
-        <v>111638.5</v>
-      </c>
-      <c r="L57" s="1">
-        <v>111130</v>
+      <c r="B57" s="11">
+        <v>49464.083158583882</v>
+      </c>
+      <c r="C57" s="11">
+        <v>102758.9</v>
+      </c>
+      <c r="D57" s="8">
+        <v>113257.7</v>
+      </c>
+      <c r="E57" s="8">
+        <v>104280.1</v>
+      </c>
+      <c r="F57" s="8">
+        <v>111029.7</v>
+      </c>
+      <c r="G57" s="8">
+        <v>133455.1</v>
+      </c>
+      <c r="H57" s="8">
+        <v>149304.6</v>
+      </c>
+      <c r="I57" s="8">
+        <v>158209.70000000001</v>
+      </c>
+      <c r="J57" s="8">
+        <v>180187.1</v>
+      </c>
+      <c r="K57" s="8">
+        <v>115142.1</v>
+      </c>
+      <c r="L57" s="8">
+        <v>114586.7</v>
+      </c>
+      <c r="M57" s="8">
+        <v>126800</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="15" customHeight="1">
+    <row r="58" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" s="1">
-        <v>49473.91</v>
-      </c>
-      <c r="C58" s="1">
-        <v>103801.5</v>
-      </c>
-      <c r="D58" s="1">
-        <v>115359.2</v>
-      </c>
-      <c r="E58" s="1">
-        <v>106487</v>
-      </c>
-      <c r="F58" s="1">
-        <v>111716</v>
-      </c>
-      <c r="G58" s="1">
-        <v>134375</v>
-      </c>
-      <c r="H58" s="1">
-        <v>151873.5</v>
-      </c>
-      <c r="I58" s="1">
-        <v>161480</v>
-      </c>
-      <c r="J58" s="1">
-        <v>183262.7</v>
-      </c>
-      <c r="K58" s="1">
-        <v>118250.9</v>
-      </c>
-      <c r="L58" s="1">
-        <v>116300</v>
+      <c r="B58" s="11">
+        <v>51076.174626652828</v>
+      </c>
+      <c r="C58" s="11">
+        <v>107163.2</v>
+      </c>
+      <c r="D58" s="8">
+        <v>119079.2</v>
+      </c>
+      <c r="E58" s="8">
+        <v>109915.1</v>
+      </c>
+      <c r="F58" s="8">
+        <v>115257.9</v>
+      </c>
+      <c r="G58" s="8">
+        <v>138693</v>
+      </c>
+      <c r="H58" s="8">
+        <v>156688.5</v>
+      </c>
+      <c r="I58" s="8">
+        <v>166539.9</v>
+      </c>
+      <c r="J58" s="8">
+        <v>189011.20000000001</v>
+      </c>
+      <c r="K58" s="8">
+        <v>121962</v>
+      </c>
+      <c r="L58" s="8">
+        <v>119917.5</v>
+      </c>
+      <c r="M58" s="8">
+        <v>136050</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="15" customHeight="1">
+    <row r="59" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" s="1">
-        <v>52197.63</v>
-      </c>
-      <c r="C59" s="1">
-        <v>108170.6</v>
-      </c>
-      <c r="D59" s="1">
-        <v>122914.8</v>
-      </c>
-      <c r="E59" s="1">
-        <v>111783.7</v>
-      </c>
-      <c r="F59" s="1">
-        <v>116876.8</v>
-      </c>
-      <c r="G59" s="1">
-        <v>139392.70000000001</v>
-      </c>
-      <c r="H59" s="1">
-        <v>158150.6</v>
-      </c>
-      <c r="I59" s="1">
-        <v>168274.6</v>
-      </c>
-      <c r="J59" s="1">
-        <v>192369.7</v>
-      </c>
-      <c r="K59" s="1">
-        <v>125388.4</v>
-      </c>
-      <c r="L59" s="1">
-        <v>122800</v>
+      <c r="B59" s="11">
+        <v>53888.105164467743</v>
+      </c>
+      <c r="C59" s="11">
+        <v>111673.9</v>
+      </c>
+      <c r="D59" s="8">
+        <v>126878.5</v>
+      </c>
+      <c r="E59" s="8">
+        <v>115382.3</v>
+      </c>
+      <c r="F59" s="8">
+        <v>120582.3</v>
+      </c>
+      <c r="G59" s="8">
+        <v>143871.9</v>
+      </c>
+      <c r="H59" s="8">
+        <v>163164.70000000001</v>
+      </c>
+      <c r="I59" s="8">
+        <v>173547.4</v>
+      </c>
+      <c r="J59" s="8">
+        <v>198403.9</v>
+      </c>
+      <c r="K59" s="8">
+        <v>129323.5</v>
+      </c>
+      <c r="L59" s="8">
+        <v>126619.6</v>
+      </c>
+      <c r="M59" s="8">
+        <v>145000</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="15" customHeight="1">
+    <row r="60" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" s="1">
-        <v>55135.91</v>
-      </c>
-      <c r="C60" s="1">
-        <v>111613.5</v>
-      </c>
-      <c r="D60" s="1">
-        <v>128879.8</v>
-      </c>
-      <c r="E60" s="1">
-        <v>116138.1</v>
-      </c>
-      <c r="F60" s="1">
-        <v>120823.3</v>
-      </c>
-      <c r="G60" s="1">
-        <v>144524.70000000001</v>
-      </c>
-      <c r="H60" s="1">
-        <v>165596.6</v>
-      </c>
-      <c r="I60" s="1">
-        <v>178028.7</v>
-      </c>
-      <c r="J60" s="1">
-        <v>202103.2</v>
-      </c>
-      <c r="K60" s="1">
-        <v>132354.4</v>
-      </c>
-      <c r="L60" s="1">
-        <v>130000</v>
+      <c r="B60" s="11">
+        <v>56921.544453620379</v>
+      </c>
+      <c r="C60" s="11">
+        <v>115228.3</v>
+      </c>
+      <c r="D60" s="8">
+        <v>133035.79999999999</v>
+      </c>
+      <c r="E60" s="8">
+        <v>119876.9</v>
+      </c>
+      <c r="F60" s="8">
+        <v>124654</v>
+      </c>
+      <c r="G60" s="8">
+        <v>149168.79999999999</v>
+      </c>
+      <c r="H60" s="8">
+        <v>170846.7</v>
+      </c>
+      <c r="I60" s="8">
+        <v>183607.2</v>
+      </c>
+      <c r="J60" s="8">
+        <v>208442.7</v>
+      </c>
+      <c r="K60" s="8">
+        <v>136508.1</v>
+      </c>
+      <c r="L60" s="8">
+        <v>134043.6</v>
+      </c>
+      <c r="M60" s="8">
+        <v>152300</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="15" customHeight="1">
+    <row r="61" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" s="1">
-        <v>58652.3</v>
-      </c>
-      <c r="C61" s="1">
-        <v>115208.5</v>
-      </c>
-      <c r="D61" s="1">
-        <v>133525.29999999999</v>
-      </c>
-      <c r="E61" s="1">
-        <v>122994.6</v>
-      </c>
-      <c r="F61" s="1">
-        <v>125118.9</v>
-      </c>
-      <c r="G61" s="1">
-        <v>151157.6</v>
-      </c>
-      <c r="H61" s="1">
-        <v>175051.7</v>
-      </c>
-      <c r="I61" s="1">
-        <v>184971.3</v>
-      </c>
-      <c r="J61" s="1">
-        <v>212702.4</v>
-      </c>
-      <c r="K61" s="1">
-        <v>139888.5</v>
-      </c>
-      <c r="L61" s="1">
-        <v>140500</v>
+      <c r="B61" s="11">
+        <v>60551.816443350239</v>
+      </c>
+      <c r="C61" s="11">
+        <v>118939.6</v>
+      </c>
+      <c r="D61" s="8">
+        <v>137831.1</v>
+      </c>
+      <c r="E61" s="8">
+        <v>126954.1</v>
+      </c>
+      <c r="F61" s="8">
+        <v>129085.7</v>
+      </c>
+      <c r="G61" s="8">
+        <v>156014.9</v>
+      </c>
+      <c r="H61" s="8">
+        <v>180601.60000000001</v>
+      </c>
+      <c r="I61" s="8">
+        <v>190767.3</v>
+      </c>
+      <c r="J61" s="8">
+        <v>219374.4</v>
+      </c>
+      <c r="K61" s="8">
+        <v>144278.6</v>
+      </c>
+      <c r="L61" s="8">
+        <v>144870.20000000001</v>
+      </c>
+      <c r="M61" s="8">
+        <v>160401</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="15" customHeight="1">
+    <row r="62" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" s="1">
-        <v>60273.42</v>
-      </c>
-      <c r="C62" s="1">
-        <v>119388.1</v>
-      </c>
-      <c r="D62" s="1">
-        <v>140249.4</v>
-      </c>
-      <c r="E62" s="1">
-        <v>127868.9</v>
-      </c>
-      <c r="F62" s="1">
-        <v>132177.1</v>
-      </c>
-      <c r="G62" s="1">
-        <v>157819.20000000001</v>
-      </c>
-      <c r="H62" s="1">
-        <v>183128</v>
-      </c>
-      <c r="I62" s="1">
-        <v>190890.4</v>
-      </c>
-      <c r="J62" s="1">
-        <v>222201.2</v>
-      </c>
-      <c r="K62" s="1">
-        <v>148429.9</v>
-      </c>
-      <c r="L62" s="1">
-        <v>147600</v>
+      <c r="B62" s="11">
+        <v>62225.438120124098</v>
+      </c>
+      <c r="C62" s="11">
+        <v>123254.6</v>
+      </c>
+      <c r="D62" s="8">
+        <v>144772.1</v>
+      </c>
+      <c r="E62" s="8">
+        <v>131985.29999999999</v>
+      </c>
+      <c r="F62" s="8">
+        <v>136367.70000000001</v>
+      </c>
+      <c r="G62" s="8">
+        <v>162890.5</v>
+      </c>
+      <c r="H62" s="8">
+        <v>188934</v>
+      </c>
+      <c r="I62" s="8">
+        <v>196871.9</v>
+      </c>
+      <c r="J62" s="8">
+        <v>229171.20000000001</v>
+      </c>
+      <c r="K62" s="8">
+        <v>153088</v>
+      </c>
+      <c r="L62" s="8">
+        <v>152191</v>
+      </c>
+      <c r="M62" s="8">
+        <v>170000</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="15" customHeight="1">
+    <row r="63" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" s="1">
-        <v>62061.42</v>
-      </c>
-      <c r="C63" s="1">
-        <v>123862.5</v>
-      </c>
-      <c r="D63" s="1">
-        <v>146919.4</v>
-      </c>
-      <c r="E63" s="1">
-        <v>133246.9</v>
-      </c>
-      <c r="F63" s="1">
-        <v>137337.9</v>
-      </c>
-      <c r="G63" s="1">
-        <v>164066.20000000001</v>
-      </c>
-      <c r="H63" s="1">
-        <v>192254.8</v>
-      </c>
-      <c r="I63" s="1">
-        <v>197179.4</v>
-      </c>
-      <c r="J63" s="1">
-        <v>233766</v>
-      </c>
-      <c r="K63" s="1">
-        <v>155074.4</v>
-      </c>
-      <c r="L63" s="1">
-        <v>155890</v>
+      <c r="B63" s="11">
+        <v>64071.344381271745</v>
+      </c>
+      <c r="C63" s="11">
+        <v>127873.9</v>
+      </c>
+      <c r="D63" s="8">
+        <v>151657.1</v>
+      </c>
+      <c r="E63" s="8">
+        <v>137536.4</v>
+      </c>
+      <c r="F63" s="8">
+        <v>141692.1</v>
+      </c>
+      <c r="G63" s="8">
+        <v>169338.3</v>
+      </c>
+      <c r="H63" s="8">
+        <v>198350.2</v>
+      </c>
+      <c r="I63" s="8">
+        <v>203357.9</v>
+      </c>
+      <c r="J63" s="8">
+        <v>241098.7</v>
+      </c>
+      <c r="K63" s="8">
+        <v>159941.1</v>
+      </c>
+      <c r="L63" s="8">
+        <v>160738.9</v>
+      </c>
+      <c r="M63" s="8">
+        <v>179400</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="15" customHeight="1">
+    <row r="64" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" s="1">
-        <v>65714.899999999994</v>
-      </c>
-      <c r="C64" s="1">
-        <v>128605.8</v>
-      </c>
-      <c r="D64" s="1">
-        <v>152920.5</v>
-      </c>
-      <c r="E64" s="1">
-        <v>140623.29999999999</v>
-      </c>
-      <c r="F64" s="1">
-        <v>142453.1</v>
-      </c>
-      <c r="G64" s="1">
-        <v>170827.9</v>
-      </c>
-      <c r="H64" s="1">
-        <v>201710</v>
-      </c>
-      <c r="I64" s="1">
-        <v>206058</v>
-      </c>
-      <c r="J64" s="1">
-        <v>242523.8</v>
-      </c>
-      <c r="K64" s="1">
-        <v>164505.29999999999</v>
-      </c>
-      <c r="L64" s="1">
-        <v>163900</v>
+      <c r="B64" s="11">
+        <v>67843.146174883441</v>
+      </c>
+      <c r="C64" s="11">
+        <v>132770.9</v>
+      </c>
+      <c r="D64" s="8">
+        <v>157851.79999999999</v>
+      </c>
+      <c r="E64" s="8">
+        <v>145150.29999999999</v>
+      </c>
+      <c r="F64" s="8">
+        <v>146969.5</v>
+      </c>
+      <c r="G64" s="8">
+        <v>176317.2</v>
+      </c>
+      <c r="H64" s="8">
+        <v>208105.1</v>
+      </c>
+      <c r="I64" s="8">
+        <v>212514.8</v>
+      </c>
+      <c r="J64" s="8">
+        <v>250131.3</v>
+      </c>
+      <c r="K64" s="8">
+        <v>169668</v>
+      </c>
+      <c r="L64" s="8">
+        <v>168998</v>
+      </c>
+      <c r="M64" s="8">
+        <v>188200</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="15" customHeight="1">
+    <row r="65" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" s="1">
-        <v>67353.89</v>
-      </c>
-      <c r="C65" s="1">
-        <v>134273</v>
-      </c>
-      <c r="D65" s="1">
-        <v>160024.29999999999</v>
-      </c>
-      <c r="E65" s="1">
-        <v>145253.9</v>
-      </c>
-      <c r="F65" s="1">
-        <v>147539.5</v>
-      </c>
-      <c r="G65" s="1">
-        <v>176903.3</v>
-      </c>
-      <c r="H65" s="1">
-        <v>211743</v>
-      </c>
-      <c r="I65" s="1">
-        <v>214949</v>
-      </c>
-      <c r="J65" s="1">
-        <v>253190.39999999999</v>
-      </c>
-      <c r="K65" s="1">
-        <v>171792.8</v>
-      </c>
-      <c r="L65" s="1">
-        <v>173150</v>
+      <c r="B65" s="11">
+        <v>69535.216590408265</v>
+      </c>
+      <c r="C65" s="11">
+        <v>138621.6</v>
+      </c>
+      <c r="D65" s="8">
+        <v>165184.6</v>
+      </c>
+      <c r="E65" s="8">
+        <v>149929.9</v>
+      </c>
+      <c r="F65" s="8">
+        <v>152217.20000000001</v>
+      </c>
+      <c r="G65" s="8">
+        <v>182587.9</v>
+      </c>
+      <c r="H65" s="8">
+        <v>218456.2</v>
+      </c>
+      <c r="I65" s="8">
+        <v>221684.3</v>
+      </c>
+      <c r="J65" s="8">
+        <v>261132.4</v>
+      </c>
+      <c r="K65" s="8">
+        <v>177184.2</v>
+      </c>
+      <c r="L65" s="8">
+        <v>178535.8</v>
+      </c>
+      <c r="M65" s="8">
+        <v>197200</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="15" customHeight="1">
+    <row r="66" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" s="1">
-        <v>69982.25</v>
-      </c>
-      <c r="C66" s="1">
-        <v>140978.79999999999</v>
-      </c>
-      <c r="D66" s="1">
-        <v>167200.29999999999</v>
-      </c>
-      <c r="E66" s="1">
-        <v>151444.20000000001</v>
-      </c>
-      <c r="F66" s="1">
-        <v>153306</v>
-      </c>
-      <c r="G66" s="1">
-        <v>183665</v>
-      </c>
-      <c r="H66" s="1">
-        <v>223233.6</v>
-      </c>
-      <c r="I66" s="1">
-        <v>227761.3</v>
-      </c>
-      <c r="J66" s="1">
-        <v>264530.59999999998</v>
-      </c>
-      <c r="K66" s="1">
-        <v>180741.5</v>
-      </c>
-      <c r="L66" s="1">
-        <v>183300</v>
+      <c r="B66" s="11">
+        <v>72248.698794295313</v>
+      </c>
+      <c r="C66" s="11">
+        <v>145544.5</v>
+      </c>
+      <c r="D66" s="8">
+        <v>172592.1</v>
+      </c>
+      <c r="E66" s="8">
+        <v>156319.6</v>
+      </c>
+      <c r="F66" s="8">
+        <v>158166.5</v>
+      </c>
+      <c r="G66" s="8">
+        <v>189566.8</v>
+      </c>
+      <c r="H66" s="8">
+        <v>230311.1</v>
+      </c>
+      <c r="I66" s="8">
+        <v>234898.1</v>
+      </c>
+      <c r="J66" s="8">
+        <v>272828.3</v>
+      </c>
+      <c r="K66" s="8">
+        <v>186413.7</v>
+      </c>
+      <c r="L66" s="8">
+        <v>189001.5</v>
+      </c>
+      <c r="M66" s="8">
+        <v>206940</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="15" customHeight="1">
+    <row r="67" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" s="1">
-        <v>73659.570000000007</v>
-      </c>
-      <c r="C67" s="1">
-        <v>146208.6</v>
-      </c>
-      <c r="D67" s="1">
-        <v>175677.8</v>
-      </c>
-      <c r="E67" s="1">
-        <v>158463.20000000001</v>
-      </c>
-      <c r="F67" s="1">
-        <v>158891.79999999999</v>
-      </c>
-      <c r="G67" s="1">
-        <v>192842.5</v>
-      </c>
-      <c r="H67" s="1">
-        <v>233227.2</v>
-      </c>
-      <c r="I67" s="1">
-        <v>239476.2</v>
-      </c>
-      <c r="J67" s="1">
-        <v>273726.3</v>
-      </c>
-      <c r="K67" s="1">
-        <v>191404.9</v>
-      </c>
-      <c r="L67" s="1">
-        <v>193020</v>
+      <c r="B67" s="11">
+        <v>76045.112671388983</v>
+      </c>
+      <c r="C67" s="11">
+        <v>150943.70000000001</v>
+      </c>
+      <c r="D67" s="8">
+        <v>181342.9</v>
+      </c>
+      <c r="E67" s="8">
+        <v>163564.5</v>
+      </c>
+      <c r="F67" s="8">
+        <v>163929.29999999999</v>
+      </c>
+      <c r="G67" s="8">
+        <v>199039.2</v>
+      </c>
+      <c r="H67" s="8">
+        <v>240621.5</v>
+      </c>
+      <c r="I67" s="8">
+        <v>246980.1</v>
+      </c>
+      <c r="J67" s="8">
+        <v>282312.5</v>
+      </c>
+      <c r="K67" s="8">
+        <v>197411.7</v>
+      </c>
+      <c r="L67" s="8">
+        <v>199023.8</v>
+      </c>
+      <c r="M67" s="8">
+        <v>220900</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="15" customHeight="1">
+    <row r="68" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" s="1">
-        <v>76216.41</v>
-      </c>
-      <c r="C68" s="1">
-        <v>150755.5</v>
-      </c>
-      <c r="D68" s="1">
-        <v>182745.4</v>
-      </c>
-      <c r="E68" s="1">
-        <v>165368.5</v>
-      </c>
-      <c r="F68" s="1">
-        <v>165676.70000000001</v>
-      </c>
-      <c r="G68" s="1">
-        <v>202563.3</v>
-      </c>
-      <c r="H68" s="1">
-        <v>244914.8</v>
-      </c>
-      <c r="I68" s="1">
-        <v>252670.8</v>
-      </c>
-      <c r="J68" s="1">
-        <v>283393.59999999998</v>
-      </c>
-      <c r="K68" s="1">
-        <v>202818.4</v>
-      </c>
-      <c r="L68" s="1">
-        <v>202300</v>
+      <c r="B68" s="11">
+        <v>78684.758624830109</v>
+      </c>
+      <c r="C68" s="11">
+        <v>155637.79999999999</v>
+      </c>
+      <c r="D68" s="8">
+        <v>188638.5</v>
+      </c>
+      <c r="E68" s="8">
+        <v>170692</v>
+      </c>
+      <c r="F68" s="8">
+        <v>170929.4</v>
+      </c>
+      <c r="G68" s="8">
+        <v>209072.3</v>
+      </c>
+      <c r="H68" s="8">
+        <v>252679.7</v>
+      </c>
+      <c r="I68" s="8">
+        <v>260588.1</v>
+      </c>
+      <c r="J68" s="8">
+        <v>292283</v>
+      </c>
+      <c r="K68" s="8">
+        <v>209183.5</v>
+      </c>
+      <c r="L68" s="8">
+        <v>208592.5</v>
+      </c>
+      <c r="M68" s="8">
+        <v>229500</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="15" customHeight="1">
+    <row r="69" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" s="1">
-        <v>79440.77</v>
-      </c>
-      <c r="C69" s="1">
-        <v>156389.9</v>
-      </c>
-      <c r="D69" s="1">
-        <v>187625.9</v>
-      </c>
-      <c r="E69" s="1">
-        <v>172354.9</v>
-      </c>
-      <c r="F69" s="1">
-        <v>171824.1</v>
-      </c>
-      <c r="G69" s="1">
-        <v>212198.2</v>
-      </c>
-      <c r="H69" s="1">
-        <v>258467.20000000001</v>
-      </c>
-      <c r="I69" s="1">
-        <v>268282.40000000002</v>
-      </c>
-      <c r="J69" s="1">
-        <v>294958.40000000002</v>
-      </c>
-      <c r="K69" s="1">
-        <v>214446.3</v>
-      </c>
-      <c r="L69" s="1">
-        <v>212620</v>
+      <c r="B69" s="11">
+        <v>82013.542915766375</v>
+      </c>
+      <c r="C69" s="11">
+        <v>161454.79999999999</v>
+      </c>
+      <c r="D69" s="8">
+        <v>193676.3</v>
+      </c>
+      <c r="E69" s="8">
+        <v>177903.4</v>
+      </c>
+      <c r="F69" s="8">
+        <v>177271.7</v>
+      </c>
+      <c r="G69" s="8">
+        <v>219016.9</v>
+      </c>
+      <c r="H69" s="8">
+        <v>266661.8</v>
+      </c>
+      <c r="I69" s="8">
+        <v>276688.90000000002</v>
+      </c>
+      <c r="J69" s="8">
+        <v>304210.5</v>
+      </c>
+      <c r="K69" s="8">
+        <v>221176.3</v>
+      </c>
+      <c r="L69" s="8">
+        <v>219233.5</v>
+      </c>
+      <c r="M69" s="8">
+        <v>240900</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="15" customHeight="1">
+    <row r="70" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" s="1">
-        <v>82879.679999999993</v>
-      </c>
-      <c r="C70" s="1">
-        <v>162812.6</v>
-      </c>
-      <c r="D70" s="1">
-        <v>196971</v>
-      </c>
-      <c r="E70" s="1">
-        <v>178074.1</v>
-      </c>
-      <c r="F70" s="1">
-        <v>178958.1</v>
-      </c>
-      <c r="G70" s="1">
-        <v>222262</v>
-      </c>
-      <c r="H70" s="1">
-        <v>268027.40000000002</v>
-      </c>
-      <c r="I70" s="1">
-        <v>281156.40000000002</v>
-      </c>
-      <c r="J70" s="1">
-        <v>310700</v>
-      </c>
-      <c r="K70" s="1">
-        <v>226985.2</v>
-      </c>
-      <c r="L70" s="1">
-        <v>221400</v>
+      <c r="B70" s="11">
+        <v>85563.825634179826</v>
+      </c>
+      <c r="C70" s="11">
+        <v>168085.5</v>
+      </c>
+      <c r="D70" s="8">
+        <v>203322.8</v>
+      </c>
+      <c r="E70" s="8">
+        <v>183806.7</v>
+      </c>
+      <c r="F70" s="8">
+        <v>184631.9</v>
+      </c>
+      <c r="G70" s="8">
+        <v>229404.1</v>
+      </c>
+      <c r="H70" s="8">
+        <v>276525.09999999998</v>
+      </c>
+      <c r="I70" s="8">
+        <v>289966.3</v>
+      </c>
+      <c r="J70" s="8">
+        <v>320445.90000000002</v>
+      </c>
+      <c r="K70" s="8">
+        <v>234108.6</v>
+      </c>
+      <c r="L70" s="8">
+        <v>228286.6</v>
+      </c>
+      <c r="M70" s="8">
+        <v>253300</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="15" customHeight="1">
+    <row r="71" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" s="1">
-        <v>84637.88</v>
-      </c>
-      <c r="C71" s="1">
-        <v>170643.3</v>
-      </c>
-      <c r="D71" s="1">
-        <v>204436.3</v>
-      </c>
-      <c r="E71" s="1">
-        <v>184898.1</v>
-      </c>
-      <c r="F71" s="1">
-        <v>187094</v>
-      </c>
-      <c r="G71" s="1">
-        <v>231868.4</v>
-      </c>
-      <c r="H71" s="1">
-        <v>284705.3</v>
-      </c>
-      <c r="I71" s="1">
-        <v>292624.59999999998</v>
-      </c>
-      <c r="J71" s="1">
-        <v>322803.7</v>
-      </c>
-      <c r="K71" s="1">
-        <v>238141.5</v>
-      </c>
-      <c r="L71" s="1">
-        <v>233300</v>
+      <c r="B71" s="11">
+        <v>87378.966790975013</v>
+      </c>
+      <c r="C71" s="11">
+        <v>176169.8</v>
+      </c>
+      <c r="D71" s="8">
+        <v>211028.8</v>
+      </c>
+      <c r="E71" s="8">
+        <v>190850.4</v>
+      </c>
+      <c r="F71" s="8">
+        <v>193025.7</v>
+      </c>
+      <c r="G71" s="8">
+        <v>239319.2</v>
+      </c>
+      <c r="H71" s="8">
+        <v>293731.7</v>
+      </c>
+      <c r="I71" s="8">
+        <v>301793.90000000002</v>
+      </c>
+      <c r="J71" s="8">
+        <v>332929.3</v>
+      </c>
+      <c r="K71" s="8">
+        <v>245615.1</v>
+      </c>
+      <c r="L71" s="8">
+        <v>240556.7</v>
+      </c>
+      <c r="M71" s="8">
+        <v>266680</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="15" customHeight="1">
+    <row r="72" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72" s="1">
-        <v>88511.88</v>
-      </c>
-      <c r="C72" s="1">
-        <v>177742</v>
-      </c>
-      <c r="D72" s="1">
-        <v>211485.8</v>
-      </c>
-      <c r="E72" s="1">
-        <v>191072.2</v>
-      </c>
-      <c r="F72" s="1">
-        <v>194440.5</v>
-      </c>
-      <c r="G72" s="1">
-        <v>240831.5</v>
-      </c>
-      <c r="H72" s="1">
-        <v>300726.5</v>
-      </c>
-      <c r="I72" s="1">
-        <v>309900.90000000002</v>
-      </c>
-      <c r="J72" s="1">
-        <v>337175.5</v>
-      </c>
-      <c r="K72" s="1">
-        <v>252062.8</v>
-      </c>
-      <c r="L72" s="1">
-        <v>246910</v>
+      <c r="B72" s="11">
+        <v>91378.430356794925</v>
+      </c>
+      <c r="C72" s="11">
+        <v>183498.3</v>
+      </c>
+      <c r="D72" s="8">
+        <v>218305.6</v>
+      </c>
+      <c r="E72" s="8">
+        <v>197223.3</v>
+      </c>
+      <c r="F72" s="8">
+        <v>200605.2</v>
+      </c>
+      <c r="G72" s="8">
+        <v>248570.3</v>
+      </c>
+      <c r="H72" s="8">
+        <v>310260.90000000002</v>
+      </c>
+      <c r="I72" s="8">
+        <v>319611.5</v>
+      </c>
+      <c r="J72" s="8">
+        <v>347751.9</v>
+      </c>
+      <c r="K72" s="8">
+        <v>259973.3</v>
+      </c>
+      <c r="L72" s="8">
+        <v>254590</v>
+      </c>
+      <c r="M72" s="8">
+        <v>279000</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="15" customHeight="1">
+    <row r="73" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73" s="1">
-        <v>92189.19</v>
-      </c>
-      <c r="C73" s="1">
-        <v>185930.6</v>
-      </c>
-      <c r="D73" s="1">
-        <v>219529.5</v>
-      </c>
-      <c r="E73" s="1">
-        <v>200495.8</v>
-      </c>
-      <c r="F73" s="1">
-        <v>201377.3</v>
-      </c>
-      <c r="G73" s="1">
-        <v>252739.5</v>
-      </c>
-      <c r="H73" s="1">
-        <v>315171.90000000002</v>
-      </c>
-      <c r="I73" s="1">
-        <v>321910.5</v>
-      </c>
-      <c r="J73" s="1">
-        <v>351176.8</v>
-      </c>
-      <c r="K73" s="1">
-        <v>265941.3</v>
-      </c>
-      <c r="L73" s="1">
-        <v>257970</v>
+      <c r="B73" s="11">
+        <v>95174.833910028057</v>
+      </c>
+      <c r="C73" s="11">
+        <v>191952.1</v>
+      </c>
+      <c r="D73" s="8">
+        <v>226608.7</v>
+      </c>
+      <c r="E73" s="8">
+        <v>206950.3</v>
+      </c>
+      <c r="F73" s="8">
+        <v>207761.8</v>
+      </c>
+      <c r="G73" s="8">
+        <v>260860.9</v>
+      </c>
+      <c r="H73" s="8">
+        <v>325164.3</v>
+      </c>
+      <c r="I73" s="8">
+        <v>331997.40000000002</v>
+      </c>
+      <c r="J73" s="8">
+        <v>362192.3</v>
+      </c>
+      <c r="K73" s="8">
+        <v>274287.3</v>
+      </c>
+      <c r="L73" s="8">
+        <v>265994.09999999998</v>
+      </c>
+      <c r="M73" s="8">
+        <v>295250</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="15" customHeight="1">
+    <row r="74" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" s="1">
-        <v>95032.11</v>
-      </c>
-      <c r="C74" s="1">
-        <v>194315.6</v>
-      </c>
-      <c r="D74" s="1">
-        <v>231314.9</v>
-      </c>
-      <c r="E74" s="1">
-        <v>208457.2</v>
-      </c>
-      <c r="F74" s="1">
-        <v>214021.2</v>
-      </c>
-      <c r="G74" s="1">
-        <v>264032.7</v>
-      </c>
-      <c r="H74" s="1">
-        <v>329748.59999999998</v>
-      </c>
-      <c r="I74" s="1">
-        <v>344428.9</v>
-      </c>
-      <c r="J74" s="1">
-        <v>366255.9</v>
-      </c>
-      <c r="K74" s="1">
-        <v>278748.09999999998</v>
-      </c>
-      <c r="L74" s="1">
-        <v>270940</v>
+      <c r="B74" s="11">
+        <v>98109.824865252827</v>
+      </c>
+      <c r="C74" s="11">
+        <v>200608.7</v>
+      </c>
+      <c r="D74" s="8">
+        <v>238774.1</v>
+      </c>
+      <c r="E74" s="8">
+        <v>215167.9</v>
+      </c>
+      <c r="F74" s="8">
+        <v>220806.6</v>
+      </c>
+      <c r="G74" s="8">
+        <v>272517</v>
+      </c>
+      <c r="H74" s="8">
+        <v>340203.1</v>
+      </c>
+      <c r="I74" s="8">
+        <v>355221.4</v>
+      </c>
+      <c r="J74" s="8">
+        <v>377744.5</v>
+      </c>
+      <c r="K74" s="8">
+        <v>287496</v>
+      </c>
+      <c r="L74" s="8">
+        <v>279367.5</v>
+      </c>
+      <c r="M74" s="8">
+        <v>311500</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="15" customHeight="1">
+    <row r="75" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75" s="1">
-        <v>99180.27</v>
-      </c>
-      <c r="C75" s="1">
-        <v>200951.1</v>
-      </c>
-      <c r="D75" s="1">
-        <v>240804.6</v>
-      </c>
-      <c r="E75" s="1">
-        <v>217230.9</v>
-      </c>
-      <c r="F75" s="1">
-        <v>222066</v>
-      </c>
-      <c r="G75" s="1">
-        <v>275182.90000000002</v>
-      </c>
-      <c r="H75" s="1">
-        <v>342224.1</v>
-      </c>
-      <c r="I75" s="1">
-        <v>364208.5</v>
-      </c>
-      <c r="J75" s="1">
-        <v>379280.3</v>
-      </c>
-      <c r="K75" s="1">
-        <v>291286.90000000002</v>
-      </c>
-      <c r="L75" s="1">
-        <v>284700</v>
+      <c r="B75" s="11">
+        <v>102392.32739111537</v>
+      </c>
+      <c r="C75" s="11">
+        <v>207459.20000000001</v>
+      </c>
+      <c r="D75" s="8">
+        <v>248569.9</v>
+      </c>
+      <c r="E75" s="8">
+        <v>224224.1</v>
+      </c>
+      <c r="F75" s="8">
+        <v>229106.5</v>
+      </c>
+      <c r="G75" s="8">
+        <v>284025.59999999998</v>
+      </c>
+      <c r="H75" s="8">
+        <v>353074.2</v>
+      </c>
+      <c r="I75" s="8">
+        <v>375620.8</v>
+      </c>
+      <c r="J75" s="8">
+        <v>391177.5</v>
+      </c>
+      <c r="K75" s="8">
+        <v>300428.3</v>
+      </c>
+      <c r="L75" s="8">
+        <v>293555.5</v>
+      </c>
+      <c r="M75" s="8">
+        <v>324800</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="15" customHeight="1">
+    <row r="76" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" s="1">
-        <v>102970.8</v>
-      </c>
-      <c r="C76" s="1">
-        <v>208545.6</v>
-      </c>
-      <c r="D76" s="1">
-        <v>257578.9</v>
-      </c>
-      <c r="E76" s="1">
-        <v>229611.6</v>
-      </c>
-      <c r="F76" s="1">
-        <v>234512.6</v>
-      </c>
-      <c r="G76" s="1">
-        <v>286905</v>
-      </c>
-      <c r="H76" s="1">
-        <v>355750.3</v>
-      </c>
-      <c r="I76" s="1">
-        <v>385356.9</v>
-      </c>
-      <c r="J76" s="1">
-        <v>399153.8</v>
-      </c>
-      <c r="K76" s="1">
-        <v>306076.3</v>
-      </c>
-      <c r="L76" s="1">
-        <v>300100</v>
+      <c r="B76" s="11">
+        <v>106305.61769316682</v>
+      </c>
+      <c r="C76" s="11">
+        <v>215299.6</v>
+      </c>
+      <c r="D76" s="8">
+        <v>265885.09999999998</v>
+      </c>
+      <c r="E76" s="8">
+        <v>237003.3</v>
+      </c>
+      <c r="F76" s="8">
+        <v>241947.7</v>
+      </c>
+      <c r="G76" s="8">
+        <v>296124.3</v>
+      </c>
+      <c r="H76" s="8">
+        <v>367029.2</v>
+      </c>
+      <c r="I76" s="8">
+        <v>397431.9</v>
+      </c>
+      <c r="J76" s="8">
+        <v>411674.3</v>
+      </c>
+      <c r="K76" s="8">
+        <v>315681.90000000002</v>
+      </c>
+      <c r="L76" s="8">
+        <v>309434.5</v>
+      </c>
+      <c r="M76" s="8">
+        <v>344000</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="15" customHeight="1">
+    <row r="77" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77" s="1">
-        <v>107494.5</v>
-      </c>
-      <c r="C77" s="1">
-        <v>216135.5</v>
-      </c>
-      <c r="D77" s="1">
-        <v>267159</v>
-      </c>
-      <c r="E77" s="1">
-        <v>240465</v>
-      </c>
-      <c r="F77" s="1">
-        <v>244363.6</v>
-      </c>
-      <c r="G77" s="1">
-        <v>298798.7</v>
-      </c>
-      <c r="H77" s="1">
-        <v>378587.1</v>
-      </c>
-      <c r="I77" s="1">
-        <v>405938</v>
-      </c>
-      <c r="J77" s="1">
-        <v>418522</v>
-      </c>
-      <c r="K77" s="1">
-        <v>321830.3</v>
-      </c>
-      <c r="L77" s="1">
-        <v>316840</v>
+      <c r="B77" s="11">
+        <v>110975.82247703349</v>
+      </c>
+      <c r="C77" s="11">
+        <v>223135.2</v>
+      </c>
+      <c r="D77" s="8">
+        <v>275774.09999999998</v>
+      </c>
+      <c r="E77" s="8">
+        <v>248206.1</v>
+      </c>
+      <c r="F77" s="8">
+        <v>252111</v>
+      </c>
+      <c r="G77" s="8">
+        <v>308400.2</v>
+      </c>
+      <c r="H77" s="8">
+        <v>390590</v>
+      </c>
+      <c r="I77" s="8">
+        <v>418657.9</v>
+      </c>
+      <c r="J77" s="8">
+        <v>431650.1</v>
+      </c>
+      <c r="K77" s="8">
+        <v>331930.2</v>
+      </c>
+      <c r="L77" s="8">
+        <v>326695.2</v>
+      </c>
+      <c r="M77" s="8">
+        <v>368600</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="15" customHeight="1">
+    <row r="78" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" s="1">
-        <v>112274.4</v>
-      </c>
-      <c r="C78" s="1">
-        <v>224805.8</v>
-      </c>
-      <c r="D78" s="1">
-        <v>281077.3</v>
-      </c>
-      <c r="E78" s="1">
-        <v>251237.2</v>
-      </c>
-      <c r="F78" s="1">
-        <v>253715.3</v>
-      </c>
-      <c r="G78" s="1">
-        <v>312636.40000000002</v>
-      </c>
-      <c r="H78" s="1">
-        <v>395409.4</v>
-      </c>
-      <c r="I78" s="1">
-        <v>427283.7</v>
-      </c>
-      <c r="J78" s="1">
-        <v>436509.2</v>
-      </c>
-      <c r="K78" s="1">
-        <v>345943.4</v>
-      </c>
-      <c r="L78" s="1">
-        <v>335500</v>
+      <c r="B78" s="11">
+        <v>115910.52456744717</v>
+      </c>
+      <c r="C78" s="11">
+        <v>232086.39999999999</v>
+      </c>
+      <c r="D78" s="8">
+        <v>290141.3</v>
+      </c>
+      <c r="E78" s="8">
+        <v>259325.1</v>
+      </c>
+      <c r="F78" s="8">
+        <v>261759.2</v>
+      </c>
+      <c r="G78" s="8">
+        <v>322682.59999999998</v>
+      </c>
+      <c r="H78" s="8">
+        <v>407945.7</v>
+      </c>
+      <c r="I78" s="8">
+        <v>440672.5</v>
+      </c>
+      <c r="J78" s="8">
+        <v>450201.5</v>
+      </c>
+      <c r="K78" s="8">
+        <v>356800.1</v>
+      </c>
+      <c r="L78" s="8">
+        <v>345935.6</v>
+      </c>
+      <c r="M78" s="8">
+        <v>394500</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="15" customHeight="1">
+    <row r="79" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79" s="1">
-        <v>115647.7</v>
-      </c>
-      <c r="C79" s="1">
-        <v>237684</v>
-      </c>
-      <c r="D79" s="1">
-        <v>294308.7</v>
-      </c>
-      <c r="E79" s="1">
-        <v>264024.09999999998</v>
-      </c>
-      <c r="F79" s="1">
-        <v>263230.90000000002</v>
-      </c>
-      <c r="G79" s="1">
-        <v>327360.5</v>
-      </c>
-      <c r="H79" s="1">
-        <v>412454.9</v>
-      </c>
-      <c r="I79" s="1">
-        <v>447383.9</v>
-      </c>
-      <c r="J79" s="1">
-        <v>461019.8</v>
-      </c>
-      <c r="K79" s="1">
-        <v>366466.4</v>
-      </c>
-      <c r="L79" s="1">
-        <v>357200</v>
+      <c r="B79" s="11">
+        <v>119393.07243698261</v>
+      </c>
+      <c r="C79" s="11">
+        <v>245381.6</v>
+      </c>
+      <c r="D79" s="8">
+        <v>303799.3</v>
+      </c>
+      <c r="E79" s="8">
+        <v>272523.7</v>
+      </c>
+      <c r="F79" s="8">
+        <v>271576.5</v>
+      </c>
+      <c r="G79" s="8">
+        <v>337879.8</v>
+      </c>
+      <c r="H79" s="8">
+        <v>425531.6</v>
+      </c>
+      <c r="I79" s="8">
+        <v>461402.5</v>
+      </c>
+      <c r="J79" s="8">
+        <v>475481</v>
+      </c>
+      <c r="K79" s="8">
+        <v>377967.2</v>
+      </c>
+      <c r="L79" s="8">
+        <v>368310.6</v>
+      </c>
+      <c r="M79" s="8">
+        <v>413900</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="15" customHeight="1">
+    <row r="80" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80" s="1">
-        <v>120564.7</v>
-      </c>
-      <c r="C80" s="1">
-        <v>247453.7</v>
-      </c>
-      <c r="D80" s="1">
-        <v>310902.2</v>
-      </c>
-      <c r="E80" s="1">
-        <v>275235</v>
-      </c>
-      <c r="F80" s="1">
-        <v>272763.2</v>
-      </c>
-      <c r="G80" s="1">
-        <v>349089.2</v>
-      </c>
-      <c r="H80" s="1">
-        <v>437432.3</v>
-      </c>
-      <c r="I80" s="1">
-        <v>470197.1</v>
-      </c>
-      <c r="J80" s="1">
-        <v>492907.3</v>
-      </c>
-      <c r="K80" s="1">
-        <v>387203.7</v>
-      </c>
-      <c r="L80" s="1">
-        <v>379600</v>
+      <c r="B80" s="11">
+        <v>124469.31465513863</v>
+      </c>
+      <c r="C80" s="11">
+        <v>255467.7</v>
+      </c>
+      <c r="D80" s="8">
+        <v>320927.90000000002</v>
+      </c>
+      <c r="E80" s="8">
+        <v>284095.40000000002</v>
+      </c>
+      <c r="F80" s="8">
+        <v>281411</v>
+      </c>
+      <c r="G80" s="8">
+        <v>360306.8</v>
+      </c>
+      <c r="H80" s="8">
+        <v>451300.9</v>
+      </c>
+      <c r="I80" s="8">
+        <v>484930.5</v>
+      </c>
+      <c r="J80" s="8">
+        <v>508368.6</v>
+      </c>
+      <c r="K80" s="8">
+        <v>399355.3</v>
+      </c>
+      <c r="L80" s="8">
+        <v>391407.3</v>
+      </c>
+      <c r="M80" s="8">
+        <v>438550</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="15" customHeight="1">
+    <row r="81" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81" s="1">
-        <v>125404.2</v>
-      </c>
-      <c r="C81" s="1">
-        <v>255326.5</v>
-      </c>
-      <c r="D81" s="1">
-        <v>330966.3</v>
-      </c>
-      <c r="E81" s="1">
-        <v>287745.7</v>
-      </c>
-      <c r="F81" s="1">
-        <v>284450.90000000002</v>
-      </c>
-      <c r="G81" s="1">
-        <v>371675.7</v>
-      </c>
-      <c r="H81" s="1">
-        <v>466979.7</v>
-      </c>
-      <c r="I81" s="1">
-        <v>503491.9</v>
-      </c>
-      <c r="J81" s="1">
-        <v>520752.6</v>
-      </c>
-      <c r="K81" s="1">
-        <v>417382.6</v>
-      </c>
-      <c r="L81" s="1">
-        <v>402000</v>
+      <c r="B81" s="11">
+        <v>129465.54695425722</v>
+      </c>
+      <c r="C81" s="11">
+        <v>263595.5</v>
+      </c>
+      <c r="D81" s="8">
+        <v>341639</v>
+      </c>
+      <c r="E81" s="8">
+        <v>297008.8</v>
+      </c>
+      <c r="F81" s="8">
+        <v>293469.2</v>
+      </c>
+      <c r="G81" s="8">
+        <v>383619</v>
+      </c>
+      <c r="H81" s="8">
+        <v>481785</v>
+      </c>
+      <c r="I81" s="8">
+        <v>519268.6</v>
+      </c>
+      <c r="J81" s="8">
+        <v>537087.4</v>
+      </c>
+      <c r="K81" s="8">
+        <v>430481.3</v>
+      </c>
+      <c r="L81" s="8">
+        <v>414504.1</v>
+      </c>
+      <c r="M81" s="8">
+        <v>469900</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="15" customHeight="1">
+    <row r="82" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82" s="1">
-        <v>132019.79999999999</v>
-      </c>
-      <c r="C82" s="1">
-        <v>267280.8</v>
-      </c>
-      <c r="D82" s="1">
-        <v>341811.7</v>
-      </c>
-      <c r="E82" s="1">
-        <v>300418.8</v>
-      </c>
-      <c r="F82" s="1">
-        <v>299326.09999999998</v>
-      </c>
-      <c r="G82" s="1">
-        <v>391403.1</v>
-      </c>
-      <c r="H82" s="1">
-        <v>498798.9</v>
-      </c>
-      <c r="I82" s="1">
-        <v>538019.9</v>
-      </c>
-      <c r="J82" s="1">
-        <v>557917.1</v>
-      </c>
-      <c r="K82" s="1">
-        <v>445503.9</v>
-      </c>
-      <c r="L82" s="1">
-        <v>428300</v>
+      <c r="B82" s="11">
+        <v>136295.4001205035</v>
+      </c>
+      <c r="C82" s="11">
+        <v>275936.90000000002</v>
+      </c>
+      <c r="D82" s="8">
+        <v>352834.1</v>
+      </c>
+      <c r="E82" s="8">
+        <v>310090</v>
+      </c>
+      <c r="F82" s="8">
+        <v>308816.09999999998</v>
+      </c>
+      <c r="G82" s="8">
+        <v>403980.3</v>
+      </c>
+      <c r="H82" s="8">
+        <v>514613.1</v>
+      </c>
+      <c r="I82" s="8">
+        <v>554878.5</v>
+      </c>
+      <c r="J82" s="8">
+        <v>575417.69999999995</v>
+      </c>
+      <c r="K82" s="8">
+        <v>459485.2</v>
+      </c>
+      <c r="L82" s="8">
+        <v>441622.1</v>
+      </c>
+      <c r="M82" s="8">
+        <v>499350</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="15" customHeight="1">
+    <row r="83" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83" s="1">
-        <v>137145.4</v>
-      </c>
-      <c r="C83" s="1">
-        <v>282453.3</v>
-      </c>
-      <c r="D83" s="1">
-        <v>359706.6</v>
-      </c>
-      <c r="E83" s="1">
-        <v>313595.7</v>
-      </c>
-      <c r="F83" s="1">
-        <v>311545</v>
-      </c>
-      <c r="G83" s="1">
-        <v>406270.1</v>
-      </c>
-      <c r="H83" s="1">
-        <v>522922.7</v>
-      </c>
-      <c r="I83" s="1">
-        <v>574397.6</v>
-      </c>
-      <c r="J83" s="1">
-        <v>591039.6</v>
-      </c>
-      <c r="K83" s="1">
-        <v>466080.5</v>
-      </c>
-      <c r="L83" s="1">
-        <v>452000</v>
+      <c r="B83" s="11">
+        <v>141586.99806912677</v>
+      </c>
+      <c r="C83" s="11">
+        <v>291600.90000000002</v>
+      </c>
+      <c r="D83" s="8">
+        <v>371306.2</v>
+      </c>
+      <c r="E83" s="8">
+        <v>323691</v>
+      </c>
+      <c r="F83" s="8">
+        <v>321422.40000000002</v>
+      </c>
+      <c r="G83" s="8">
+        <v>419325</v>
+      </c>
+      <c r="H83" s="8">
+        <v>539501.69999999995</v>
+      </c>
+      <c r="I83" s="8">
+        <v>592396.1</v>
+      </c>
+      <c r="J83" s="8">
+        <v>609579.1</v>
+      </c>
+      <c r="K83" s="8">
+        <v>480707.5</v>
+      </c>
+      <c r="L83" s="8">
+        <v>466059.3</v>
+      </c>
+      <c r="M83" s="8">
+        <v>542500</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="15" customHeight="1">
+    <row r="84" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84" s="1">
-        <v>144541.79999999999</v>
-      </c>
-      <c r="C84" s="1">
-        <v>295247.3</v>
-      </c>
-      <c r="D84" s="1">
-        <v>374167.2</v>
-      </c>
-      <c r="E84" s="1">
-        <v>324562.8</v>
-      </c>
-      <c r="F84" s="1">
-        <v>328165.8</v>
-      </c>
-      <c r="G84" s="1">
-        <v>433716.9</v>
-      </c>
-      <c r="H84" s="1">
-        <v>550106.30000000005</v>
-      </c>
-      <c r="I84" s="1">
-        <v>610799.9</v>
-      </c>
-      <c r="J84" s="1">
-        <v>631011.1</v>
-      </c>
-      <c r="K84" s="1">
-        <v>496463.1</v>
-      </c>
-      <c r="L84" s="1">
-        <v>483700</v>
+      <c r="B84" s="11">
+        <v>149222.93826484962</v>
+      </c>
+      <c r="C84" s="11">
+        <v>304809.2</v>
+      </c>
+      <c r="D84" s="8">
+        <v>386233</v>
+      </c>
+      <c r="E84" s="8">
+        <v>335011.20000000001</v>
+      </c>
+      <c r="F84" s="8">
+        <v>338570.2</v>
+      </c>
+      <c r="G84" s="8">
+        <v>447653.8</v>
+      </c>
+      <c r="H84" s="8">
+        <v>567547.1</v>
+      </c>
+      <c r="I84" s="8">
+        <v>629939.1</v>
+      </c>
+      <c r="J84" s="8">
+        <v>650804.4</v>
+      </c>
+      <c r="K84" s="8">
+        <v>512043.6</v>
+      </c>
+      <c r="L84" s="8">
+        <v>498745.3</v>
+      </c>
+      <c r="M84" s="8">
+        <v>583600</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="15" customHeight="1">
+    <row r="85" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85" s="1">
-        <v>151759.29999999999</v>
-      </c>
-      <c r="C85" s="1">
-        <v>314148.09999999998</v>
-      </c>
-      <c r="D85" s="1">
-        <v>393689</v>
-      </c>
-      <c r="E85" s="1">
-        <v>341200.4</v>
-      </c>
-      <c r="F85" s="1">
-        <v>342934.8</v>
-      </c>
-      <c r="G85" s="1">
-        <v>458176</v>
-      </c>
-      <c r="H85" s="1">
-        <v>580178.9</v>
-      </c>
-      <c r="I85" s="1">
-        <v>649002.6</v>
-      </c>
-      <c r="J85" s="1">
-        <v>656274</v>
-      </c>
-      <c r="K85" s="1">
-        <v>533275.80000000005</v>
-      </c>
-      <c r="L85" s="1">
-        <v>530240</v>
+      <c r="B85" s="11">
+        <v>156674.18459585251</v>
+      </c>
+      <c r="C85" s="11">
+        <v>324322.2</v>
+      </c>
+      <c r="D85" s="8">
+        <v>406384.3</v>
+      </c>
+      <c r="E85" s="8">
+        <v>352184.4</v>
+      </c>
+      <c r="F85" s="8">
+        <v>353807.4</v>
+      </c>
+      <c r="G85" s="8">
+        <v>472898.9</v>
+      </c>
+      <c r="H85" s="8">
+        <v>598573.19999999995</v>
+      </c>
+      <c r="I85" s="8">
+        <v>669338.9</v>
+      </c>
+      <c r="J85" s="8">
+        <v>676859.8</v>
+      </c>
+      <c r="K85" s="8">
+        <v>550011.6</v>
+      </c>
+      <c r="L85" s="8">
+        <v>546732.9</v>
+      </c>
+      <c r="M85" s="8">
+        <v>624700</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="15" customHeight="1">
+    <row r="86" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86" s="1">
-        <v>156813.4</v>
-      </c>
-      <c r="C86" s="1">
-        <v>332127.40000000002</v>
-      </c>
-      <c r="D86" s="1">
-        <v>416825.9</v>
-      </c>
-      <c r="E86" s="1">
-        <v>359771.4</v>
-      </c>
-      <c r="F86" s="1">
-        <v>365505.7</v>
-      </c>
-      <c r="G86" s="1">
-        <v>484464.9</v>
-      </c>
-      <c r="H86" s="1">
-        <v>613665.9</v>
-      </c>
-      <c r="I86" s="1">
-        <v>685874.8</v>
-      </c>
-      <c r="J86" s="1">
-        <v>696582.4</v>
-      </c>
-      <c r="K86" s="1">
-        <v>576036.5</v>
-      </c>
-      <c r="L86" s="1">
-        <v>579100</v>
+      <c r="B86" s="11">
+        <v>161891.9669417509</v>
+      </c>
+      <c r="C86" s="11">
+        <v>342883.8</v>
+      </c>
+      <c r="D86" s="8">
+        <v>430267.3</v>
+      </c>
+      <c r="E86" s="8">
+        <v>371353.3</v>
+      </c>
+      <c r="F86" s="8">
+        <v>377093.9</v>
+      </c>
+      <c r="G86" s="8">
+        <v>500032.6</v>
+      </c>
+      <c r="H86" s="8">
+        <v>633121.9</v>
+      </c>
+      <c r="I86" s="8">
+        <v>707366.40000000002</v>
+      </c>
+      <c r="J86" s="8">
+        <v>718432.5</v>
+      </c>
+      <c r="K86" s="8">
+        <v>594114.19999999995</v>
+      </c>
+      <c r="L86" s="8">
+        <v>597112.69999999995</v>
+      </c>
+      <c r="M86" s="8">
+        <v>674010</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="15" customHeight="1">
+    <row r="87" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87" s="1">
-        <v>168608.2</v>
-      </c>
-      <c r="C87" s="1">
-        <v>347505.9</v>
-      </c>
-      <c r="D87" s="1">
-        <v>446831.5</v>
-      </c>
-      <c r="E87" s="1">
-        <v>384045.4</v>
-      </c>
-      <c r="F87" s="1">
-        <v>391916.79999999999</v>
-      </c>
-      <c r="G87" s="1">
-        <v>509181.4</v>
-      </c>
-      <c r="H87" s="1">
-        <v>650698.6</v>
-      </c>
-      <c r="I87" s="1">
-        <v>729650.1</v>
-      </c>
-      <c r="J87" s="1">
-        <v>736217.1</v>
-      </c>
-      <c r="K87" s="1">
-        <v>620511.9</v>
-      </c>
-      <c r="L87" s="1">
-        <v>621000</v>
+      <c r="B87" s="11">
+        <v>174068.75394901284</v>
+      </c>
+      <c r="C87" s="11">
+        <v>358760.2</v>
+      </c>
+      <c r="D87" s="8">
+        <v>461240.6</v>
+      </c>
+      <c r="E87" s="8">
+        <v>396408.7</v>
+      </c>
+      <c r="F87" s="8">
+        <v>404342.3</v>
+      </c>
+      <c r="G87" s="8">
+        <v>525543.30000000005</v>
+      </c>
+      <c r="H87" s="8">
+        <v>671328.7</v>
+      </c>
+      <c r="I87" s="8">
+        <v>752513.4</v>
+      </c>
+      <c r="J87" s="8">
+        <v>759310.4</v>
+      </c>
+      <c r="K87" s="8">
+        <v>639985.4</v>
+      </c>
+      <c r="L87" s="8">
+        <v>640316</v>
+      </c>
+      <c r="M87" s="8">
+        <v>739000</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="15" customHeight="1">
+    <row r="88" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88" s="1">
-        <v>180200.4</v>
-      </c>
-      <c r="C88" s="1">
-        <v>370006.3</v>
-      </c>
-      <c r="D88" s="1">
-        <v>479006.3</v>
-      </c>
-      <c r="E88" s="1">
-        <v>408465.6</v>
-      </c>
-      <c r="F88" s="1">
-        <v>425947.7</v>
-      </c>
-      <c r="G88" s="1">
-        <v>538429.4</v>
-      </c>
-      <c r="H88" s="1">
-        <v>702767.6</v>
-      </c>
-      <c r="I88" s="1">
-        <v>767939.2</v>
-      </c>
-      <c r="J88" s="1">
-        <v>774335.9</v>
-      </c>
-      <c r="K88" s="1">
-        <v>670774.4</v>
-      </c>
-      <c r="L88" s="1">
-        <v>664000</v>
+      <c r="B88" s="11">
+        <v>186036.37954212006</v>
+      </c>
+      <c r="C88" s="11">
+        <v>381989.4</v>
+      </c>
+      <c r="D88" s="8">
+        <v>494452.9</v>
+      </c>
+      <c r="E88" s="8">
+        <v>421615</v>
+      </c>
+      <c r="F88" s="8">
+        <v>439452.2</v>
+      </c>
+      <c r="G88" s="8">
+        <v>555731.1</v>
+      </c>
+      <c r="H88" s="8">
+        <v>725048.5</v>
+      </c>
+      <c r="I88" s="8">
+        <v>792002.3</v>
+      </c>
+      <c r="J88" s="8">
+        <v>798625.1</v>
+      </c>
+      <c r="K88" s="8">
+        <v>691825.3</v>
+      </c>
+      <c r="L88" s="8">
+        <v>684653.5</v>
+      </c>
+      <c r="M88" s="8">
+        <v>809400</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="15" customHeight="1">
+    <row r="89" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89" s="1">
-        <v>190898.6</v>
-      </c>
-      <c r="C89" s="1">
-        <v>397023.3</v>
-      </c>
-      <c r="D89" s="1">
-        <v>524466.80000000005</v>
-      </c>
-      <c r="E89" s="1">
-        <v>441399.6</v>
-      </c>
-      <c r="F89" s="1">
-        <v>462058.1</v>
-      </c>
-      <c r="G89" s="1">
-        <v>572523.5</v>
-      </c>
-      <c r="H89" s="1">
-        <v>748598.9</v>
-      </c>
-      <c r="I89" s="1">
-        <v>822012.5</v>
-      </c>
-      <c r="J89" s="1">
-        <v>824042.1</v>
-      </c>
-      <c r="K89" s="1">
-        <v>729932</v>
-      </c>
-      <c r="L89" s="1">
-        <v>716500</v>
+      <c r="B89" s="11">
+        <v>197081.05200465352</v>
+      </c>
+      <c r="C89" s="11">
+        <v>409881.3</v>
+      </c>
+      <c r="D89" s="8">
+        <v>541379.30000000005</v>
+      </c>
+      <c r="E89" s="8">
+        <v>455609.2</v>
+      </c>
+      <c r="F89" s="8">
+        <v>476707.4</v>
+      </c>
+      <c r="G89" s="8">
+        <v>590920.80000000005</v>
+      </c>
+      <c r="H89" s="8">
+        <v>772332.8</v>
+      </c>
+      <c r="I89" s="8">
+        <v>847769.9</v>
+      </c>
+      <c r="J89" s="8">
+        <v>849890.4</v>
+      </c>
+      <c r="K89" s="8">
+        <v>752839.4</v>
+      </c>
+      <c r="L89" s="8">
+        <v>738786.5</v>
+      </c>
+      <c r="M89" s="8">
+        <v>883000</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="15" customHeight="1">
+    <row r="90" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90" s="1">
-        <v>202550.39999999999</v>
-      </c>
-      <c r="C90" s="1">
-        <v>425717.2</v>
-      </c>
-      <c r="D90" s="1">
-        <v>566745.80000000005</v>
-      </c>
-      <c r="E90" s="1">
-        <v>468256.9</v>
-      </c>
-      <c r="F90" s="1">
-        <v>495906.8</v>
-      </c>
-      <c r="G90" s="1">
-        <v>609405.1</v>
-      </c>
-      <c r="H90" s="1">
-        <v>796754.5</v>
-      </c>
-      <c r="I90" s="1">
-        <v>889588.7</v>
-      </c>
-      <c r="J90" s="1">
-        <v>876454.2</v>
-      </c>
-      <c r="K90" s="1">
-        <v>814595.9</v>
-      </c>
-      <c r="L90" s="1">
-        <v>778100</v>
+      <c r="B90" s="11">
+        <v>209110.20780646568</v>
+      </c>
+      <c r="C90" s="11">
+        <v>439504.5</v>
+      </c>
+      <c r="D90" s="8">
+        <v>585021.80000000005</v>
+      </c>
+      <c r="E90" s="8">
+        <v>483331.2</v>
+      </c>
+      <c r="F90" s="8">
+        <v>511629.3</v>
+      </c>
+      <c r="G90" s="8">
+        <v>628987.6</v>
+      </c>
+      <c r="H90" s="8">
+        <v>822015.2</v>
+      </c>
+      <c r="I90" s="8">
+        <v>917463.6</v>
+      </c>
+      <c r="J90" s="8">
+        <v>903946.5</v>
+      </c>
+      <c r="K90" s="8">
+        <v>840160.4</v>
+      </c>
+      <c r="L90" s="8">
+        <v>802302.5</v>
+      </c>
+      <c r="M90" s="8">
+        <v>979930</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="15" customHeight="1">
+    <row r="91" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91" s="1">
-        <v>214720.7</v>
-      </c>
-      <c r="C91" s="1">
-        <v>466276.5</v>
-      </c>
-      <c r="D91" s="1">
-        <v>598667.5</v>
-      </c>
-      <c r="E91" s="1">
-        <v>512921.7</v>
-      </c>
-      <c r="F91" s="1">
-        <v>531713.6</v>
-      </c>
-      <c r="G91" s="1">
-        <v>651075.69999999995</v>
-      </c>
-      <c r="H91" s="1">
-        <v>864582.1</v>
-      </c>
-      <c r="I91" s="1">
-        <v>959137.9</v>
-      </c>
-      <c r="J91" s="1">
-        <v>934895.8</v>
-      </c>
-      <c r="K91" s="1">
-        <v>908798</v>
-      </c>
-      <c r="L91" s="1">
-        <v>848700</v>
+      <c r="B91" s="11">
+        <v>221674.65577628964</v>
+      </c>
+      <c r="C91" s="11">
+        <v>481377.4</v>
+      </c>
+      <c r="D91" s="8">
+        <v>617972.9</v>
+      </c>
+      <c r="E91" s="8">
+        <v>529433.80000000005</v>
+      </c>
+      <c r="F91" s="8">
+        <v>548571.4</v>
+      </c>
+      <c r="G91" s="8">
+        <v>671997.1</v>
+      </c>
+      <c r="H91" s="8">
+        <v>891993.3</v>
+      </c>
+      <c r="I91" s="8">
+        <v>989192.1</v>
+      </c>
+      <c r="J91" s="8">
+        <v>964221.2</v>
+      </c>
+      <c r="K91" s="8">
+        <v>937318.8</v>
+      </c>
+      <c r="L91" s="8">
+        <v>875098.5</v>
+      </c>
+      <c r="M91" s="8">
+        <v>1072550</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="15" customHeight="1">
+    <row r="92" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92" s="1">
-        <v>231367</v>
-      </c>
-      <c r="C92" s="1">
-        <v>503816.3</v>
-      </c>
-      <c r="D92" s="1">
-        <v>665186.1</v>
-      </c>
-      <c r="E92" s="1">
-        <v>581502.9</v>
-      </c>
-      <c r="F92" s="1">
-        <v>579359.9</v>
-      </c>
-      <c r="G92" s="1">
-        <v>705469</v>
-      </c>
-      <c r="H92" s="1">
-        <v>978950.1</v>
-      </c>
-      <c r="I92" s="1">
-        <v>1029427</v>
-      </c>
-      <c r="J92" s="1">
-        <v>1022081</v>
-      </c>
-      <c r="K92" s="1">
-        <v>1020469</v>
-      </c>
-      <c r="L92" s="1">
-        <v>942200</v>
+      <c r="B92" s="11">
+        <v>238860.06371529528</v>
+      </c>
+      <c r="C92" s="11">
+        <v>520132.9</v>
+      </c>
+      <c r="D92" s="8">
+        <v>686636.5</v>
+      </c>
+      <c r="E92" s="8">
+        <v>600222.80000000005</v>
+      </c>
+      <c r="F92" s="8">
+        <v>597728.30000000005</v>
+      </c>
+      <c r="G92" s="8">
+        <v>728138.3</v>
+      </c>
+      <c r="H92" s="8">
+        <v>1009987</v>
+      </c>
+      <c r="I92" s="8">
+        <v>1061684</v>
+      </c>
+      <c r="J92" s="8">
+        <v>1054141</v>
+      </c>
+      <c r="K92" s="8">
+        <v>1052494</v>
+      </c>
+      <c r="L92" s="8">
+        <v>971506.8</v>
+      </c>
+      <c r="M92" s="8">
+        <v>1186570</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="15" customHeight="1">
+    <row r="93" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B93" s="1">
-        <v>250564.1</v>
-      </c>
-      <c r="C93" s="1">
-        <v>557555.4</v>
-      </c>
-      <c r="D93" s="1">
-        <v>720208.6</v>
-      </c>
-      <c r="E93" s="1">
-        <v>630570.80000000005</v>
-      </c>
-      <c r="F93" s="1">
-        <v>634625.9</v>
-      </c>
-      <c r="G93" s="1">
-        <v>772513.6</v>
-      </c>
-      <c r="H93" s="1">
-        <v>1078137</v>
-      </c>
-      <c r="I93" s="1">
-        <v>1143061</v>
-      </c>
-      <c r="J93" s="1">
-        <v>1123694</v>
-      </c>
-      <c r="K93" s="1">
-        <v>1141035</v>
-      </c>
-      <c r="L93" s="1">
-        <v>1027700</v>
+      <c r="B93" s="11">
+        <v>258678.88199598741</v>
+      </c>
+      <c r="C93" s="11">
+        <v>575612.4</v>
+      </c>
+      <c r="D93" s="8">
+        <v>743433.3</v>
+      </c>
+      <c r="E93" s="8">
+        <v>650870.30000000005</v>
+      </c>
+      <c r="F93" s="8">
+        <v>654746.4</v>
+      </c>
+      <c r="G93" s="8">
+        <v>797337.3</v>
+      </c>
+      <c r="H93" s="8">
+        <v>1112319</v>
+      </c>
+      <c r="I93" s="8">
+        <v>1178878</v>
+      </c>
+      <c r="J93" s="8">
+        <v>1158941</v>
+      </c>
+      <c r="K93" s="8">
+        <v>1176844</v>
+      </c>
+      <c r="L93" s="8">
+        <v>1059666</v>
+      </c>
+      <c r="M93" s="8">
+        <v>1317500</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="15" customHeight="1">
+    <row r="94" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94" s="1">
-        <v>272824.7</v>
-      </c>
-      <c r="C94" s="1">
-        <v>622168.30000000005</v>
-      </c>
-      <c r="D94" s="1">
-        <v>811328.3</v>
-      </c>
-      <c r="E94" s="1">
-        <v>685162.9</v>
-      </c>
-      <c r="F94" s="1">
-        <v>719854.9</v>
-      </c>
-      <c r="G94" s="1">
-        <v>838414.6</v>
-      </c>
-      <c r="H94" s="1">
-        <v>1180319</v>
-      </c>
-      <c r="I94" s="1">
-        <v>1243007</v>
-      </c>
-      <c r="J94" s="1">
-        <v>1236850</v>
-      </c>
-      <c r="K94" s="1">
-        <v>1285178</v>
-      </c>
-      <c r="L94" s="1">
-        <v>1142100</v>
+      <c r="B94" s="11">
+        <v>281660.41494727565</v>
+      </c>
+      <c r="C94" s="11">
+        <v>642317.9</v>
+      </c>
+      <c r="D94" s="8">
+        <v>837491.3</v>
+      </c>
+      <c r="E94" s="8">
+        <v>707219.8</v>
+      </c>
+      <c r="F94" s="8">
+        <v>742677.6</v>
+      </c>
+      <c r="G94" s="8">
+        <v>865355.9</v>
+      </c>
+      <c r="H94" s="8">
+        <v>1217740</v>
+      </c>
+      <c r="I94" s="8">
+        <v>1281956</v>
+      </c>
+      <c r="J94" s="8">
+        <v>1275647</v>
+      </c>
+      <c r="K94" s="8">
+        <v>1325510</v>
+      </c>
+      <c r="L94" s="8">
+        <v>1177625</v>
+      </c>
+      <c r="M94" s="8">
+        <v>1445700</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="15" customHeight="1">
+    <row r="95" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B95" s="1">
-        <v>303488.90000000002</v>
-      </c>
-      <c r="C95" s="1">
-        <v>691751.3</v>
-      </c>
-      <c r="D95" s="1">
-        <v>907852.5</v>
-      </c>
-      <c r="E95" s="1">
-        <v>783168.6</v>
-      </c>
-      <c r="F95" s="1">
-        <v>788690.9</v>
-      </c>
-      <c r="G95" s="1">
-        <v>944056.2</v>
-      </c>
-      <c r="H95" s="1">
-        <v>1315580</v>
-      </c>
-      <c r="I95" s="1">
-        <v>1370366</v>
-      </c>
-      <c r="J95" s="1">
-        <v>1350835</v>
-      </c>
-      <c r="K95" s="1">
-        <v>1497234</v>
-      </c>
-      <c r="L95" s="1">
-        <v>1321030</v>
+      <c r="B95" s="11">
+        <v>313317.70732595783</v>
+      </c>
+      <c r="C95" s="11">
+        <v>714154.4</v>
+      </c>
+      <c r="D95" s="8">
+        <v>937128.3</v>
+      </c>
+      <c r="E95" s="8">
+        <v>808380.6</v>
+      </c>
+      <c r="F95" s="8">
+        <v>813695.9</v>
+      </c>
+      <c r="G95" s="8">
+        <v>974392.2</v>
+      </c>
+      <c r="H95" s="8">
+        <v>1357290</v>
+      </c>
+      <c r="I95" s="8">
+        <v>1413306</v>
+      </c>
+      <c r="J95" s="8">
+        <v>1393208</v>
+      </c>
+      <c r="K95" s="8">
+        <v>1544222</v>
+      </c>
+      <c r="L95" s="8">
+        <v>1362120</v>
+      </c>
+      <c r="M95" s="8">
+        <v>1686700</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="15" customHeight="1">
+    <row r="96" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="B96" s="1">
-        <v>338080.7</v>
-      </c>
-      <c r="C96" s="1">
-        <v>802455</v>
-      </c>
-      <c r="D96" s="1">
-        <v>1024893</v>
-      </c>
-      <c r="E96" s="1">
-        <v>905529.6</v>
-      </c>
-      <c r="F96" s="1">
-        <v>895549.7</v>
-      </c>
-      <c r="G96" s="1">
-        <v>1077145</v>
-      </c>
-      <c r="H96" s="1">
-        <v>1478865</v>
-      </c>
-      <c r="I96" s="1">
-        <v>1521549</v>
-      </c>
-      <c r="J96" s="1">
-        <v>1679590</v>
-      </c>
-      <c r="K96" s="1">
-        <v>1763154</v>
-      </c>
-      <c r="L96" s="1">
-        <v>1537500</v>
+      <c r="B96" s="11">
+        <v>349029.79916285223</v>
+      </c>
+      <c r="C96" s="11">
+        <v>828443.4</v>
+      </c>
+      <c r="D96" s="8">
+        <v>1057943</v>
+      </c>
+      <c r="E96" s="8">
+        <v>934680.6</v>
+      </c>
+      <c r="F96" s="8">
+        <v>923942.6</v>
+      </c>
+      <c r="G96" s="8">
+        <v>1111757</v>
+      </c>
+      <c r="H96" s="8">
+        <v>1525752</v>
+      </c>
+      <c r="I96" s="8">
+        <v>1569226</v>
+      </c>
+      <c r="J96" s="8">
+        <v>1732275</v>
+      </c>
+      <c r="K96" s="8">
+        <v>1818487</v>
+      </c>
+      <c r="L96" s="8">
+        <v>1585323</v>
+      </c>
+      <c r="M96" s="8">
+        <v>2044300</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="15" customHeight="1">
+    <row r="97" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B97" s="1">
-        <v>396345.59999999998</v>
-      </c>
-      <c r="C97" s="1">
-        <v>929105.5</v>
-      </c>
-      <c r="D97" s="1">
-        <v>1253297</v>
-      </c>
-      <c r="E97" s="1">
-        <v>1085342</v>
-      </c>
-      <c r="F97" s="1">
-        <v>1038838</v>
-      </c>
-      <c r="G97" s="1">
-        <v>1287713</v>
-      </c>
-      <c r="H97" s="1">
-        <v>1729243</v>
-      </c>
-      <c r="I97" s="1">
-        <v>1762777</v>
-      </c>
-      <c r="J97" s="1">
-        <v>2133503</v>
-      </c>
-      <c r="K97" s="1">
-        <v>1997427</v>
-      </c>
-      <c r="L97" s="1">
-        <v>1871600</v>
+      <c r="B97" s="11">
+        <v>409181.66924962046</v>
+      </c>
+      <c r="C97" s="11">
+        <v>959195.6</v>
+      </c>
+      <c r="D97" s="8">
+        <v>1293713</v>
+      </c>
+      <c r="E97" s="8">
+        <v>1120282</v>
+      </c>
+      <c r="F97" s="8">
+        <v>1071773</v>
+      </c>
+      <c r="G97" s="8">
+        <v>1329092</v>
+      </c>
+      <c r="H97" s="8">
+        <v>1784068</v>
+      </c>
+      <c r="I97" s="8">
+        <v>1818012</v>
+      </c>
+      <c r="J97" s="8">
+        <v>2200426</v>
+      </c>
+      <c r="K97" s="8">
+        <v>2060112</v>
+      </c>
+      <c r="L97" s="8">
+        <v>1929816</v>
+      </c>
+      <c r="M97" s="8">
+        <v>2387250</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="15" customHeight="1">
+    <row r="98" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B98" s="1">
-        <v>452125.2</v>
-      </c>
-      <c r="C98" s="1">
-        <v>1110973</v>
-      </c>
-      <c r="D98" s="1">
-        <v>1514256</v>
-      </c>
-      <c r="E98" s="1">
-        <v>1249541</v>
-      </c>
-      <c r="F98" s="1">
-        <v>1202921</v>
-      </c>
-      <c r="G98" s="1">
-        <v>1541025</v>
-      </c>
-      <c r="H98" s="1">
-        <v>2029707</v>
-      </c>
-      <c r="I98" s="1">
-        <v>2198692</v>
-      </c>
-      <c r="J98" s="1">
-        <v>2678653</v>
-      </c>
-      <c r="K98" s="1">
-        <v>2354730</v>
-      </c>
-      <c r="L98" s="1">
-        <v>2332600</v>
+      <c r="B98" s="11">
+        <v>466767.75028111454</v>
+      </c>
+      <c r="C98" s="11">
+        <v>1146953</v>
+      </c>
+      <c r="D98" s="8">
+        <v>1563087</v>
+      </c>
+      <c r="E98" s="8">
+        <v>1289766</v>
+      </c>
+      <c r="F98" s="8">
+        <v>1241059</v>
+      </c>
+      <c r="G98" s="8">
+        <v>1590543</v>
+      </c>
+      <c r="H98" s="8">
+        <v>2094058</v>
+      </c>
+      <c r="I98" s="8">
+        <v>2267587</v>
+      </c>
+      <c r="J98" s="8">
+        <v>2762677</v>
+      </c>
+      <c r="K98" s="8">
+        <v>2428628</v>
+      </c>
+      <c r="L98" s="8">
+        <v>2405155</v>
+      </c>
+      <c r="M98" s="8">
+        <v>2838000</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="15" customHeight="1">
+    <row r="99" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B99" s="1">
-        <v>581349.80000000005</v>
-      </c>
-      <c r="C99" s="1">
-        <v>1405411</v>
-      </c>
-      <c r="D99" s="1">
-        <v>1848223</v>
-      </c>
-      <c r="E99" s="1">
-        <v>1660671</v>
-      </c>
-      <c r="F99" s="1">
-        <v>1525318</v>
-      </c>
-      <c r="G99" s="1">
-        <v>1905267</v>
-      </c>
-      <c r="H99" s="1">
-        <v>2702730</v>
-      </c>
-      <c r="I99" s="1">
-        <v>2709460</v>
-      </c>
-      <c r="J99" s="1">
-        <v>3574981</v>
-      </c>
-      <c r="K99" s="1">
-        <v>3051654</v>
-      </c>
-      <c r="L99" s="1">
-        <v>3083100</v>
+      <c r="B99" s="11">
+        <v>600177.42490879935</v>
+      </c>
+      <c r="C99" s="11">
+        <v>1450927</v>
+      </c>
+      <c r="D99" s="8">
+        <v>1907823</v>
+      </c>
+      <c r="E99" s="8">
+        <v>1714132</v>
+      </c>
+      <c r="F99" s="8">
+        <v>1573678</v>
+      </c>
+      <c r="G99" s="8">
+        <v>1966490</v>
+      </c>
+      <c r="H99" s="8">
+        <v>2788419</v>
+      </c>
+      <c r="I99" s="8">
+        <v>2794360</v>
+      </c>
+      <c r="J99" s="8">
+        <v>3687120</v>
+      </c>
+      <c r="K99" s="8">
+        <v>3147424</v>
+      </c>
+      <c r="L99" s="8">
+        <v>3178999</v>
+      </c>
+      <c r="M99" s="8">
+        <v>3693600</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="15" customHeight="1">
+    <row r="100" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B100" s="1">
-        <v>734414.3</v>
-      </c>
-      <c r="C100" s="1">
-        <v>1910778</v>
-      </c>
-      <c r="D100" s="1">
-        <v>2437419</v>
-      </c>
-      <c r="E100" s="1">
-        <v>2281981</v>
-      </c>
-      <c r="F100" s="1">
-        <v>2004817</v>
-      </c>
-      <c r="G100" s="1">
-        <v>2878557</v>
-      </c>
-      <c r="H100" s="1">
-        <v>4228215</v>
-      </c>
-      <c r="I100" s="1">
-        <v>4079974</v>
-      </c>
-      <c r="J100" s="1">
-        <v>5208087</v>
-      </c>
-      <c r="K100" s="1">
-        <v>4581500</v>
-      </c>
-      <c r="L100" s="1">
-        <v>4380000</v>
+      <c r="B100" s="11">
+        <v>758199.07977984753</v>
+      </c>
+      <c r="C100" s="11">
+        <v>1972661</v>
+      </c>
+      <c r="D100" s="8">
+        <v>2516019</v>
+      </c>
+      <c r="E100" s="8">
+        <v>2355443</v>
+      </c>
+      <c r="F100" s="8">
+        <v>2068379</v>
+      </c>
+      <c r="G100" s="8">
+        <v>2971055</v>
+      </c>
+      <c r="H100" s="8">
+        <v>4362268</v>
+      </c>
+      <c r="I100" s="8">
+        <v>4207818</v>
+      </c>
+      <c r="J100" s="8">
+        <v>5371453</v>
+      </c>
+      <c r="K100" s="8">
+        <v>4725281</v>
+      </c>
+      <c r="L100" s="8">
+        <v>4516239</v>
+      </c>
+      <c r="M100" s="8">
+        <v>5793500</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="15" customHeight="1">
+    <row r="101" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B101" s="1">
-        <v>1411488</v>
-      </c>
-      <c r="C101" s="1">
-        <v>3218818</v>
-      </c>
-      <c r="D101" s="1">
-        <v>4195427</v>
-      </c>
-      <c r="E101" s="1">
-        <v>3772295</v>
-      </c>
-      <c r="F101" s="1">
-        <v>3733076</v>
-      </c>
-      <c r="G101" s="1">
-        <v>5434756</v>
-      </c>
-      <c r="H101" s="1">
-        <v>7702013</v>
-      </c>
-      <c r="I101" s="1">
-        <v>7837851</v>
-      </c>
-      <c r="J101" s="1">
-        <v>9402896</v>
-      </c>
-      <c r="K101" s="1">
-        <v>7304893</v>
-      </c>
-      <c r="L101" s="1">
-        <v>7880400</v>
+      <c r="B101" s="11">
+        <v>1457200.5239008791</v>
+      </c>
+      <c r="C101" s="11">
+        <v>3323063</v>
+      </c>
+      <c r="D101" s="8">
+        <v>4330717</v>
+      </c>
+      <c r="E101" s="8">
+        <v>3893734</v>
+      </c>
+      <c r="F101" s="8">
+        <v>3851431</v>
+      </c>
+      <c r="G101" s="8">
+        <v>5609395</v>
+      </c>
+      <c r="H101" s="8">
+        <v>7946202</v>
+      </c>
+      <c r="I101" s="8">
+        <v>8083447</v>
+      </c>
+      <c r="J101" s="8">
+        <v>9697843</v>
+      </c>
+      <c r="K101" s="8">
+        <v>7534142</v>
+      </c>
+      <c r="L101" s="8">
+        <v>8125517</v>
+      </c>
+      <c r="M101" s="8">
+        <v>10400000</v>
       </c>
     </row>
-    <row r="102" spans="1:12" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="102" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="15" customHeight="1">
+    <row r="103" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="15" customHeight="1">
+    <row r="104" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="15" customHeight="1"/>
-    <row r="106" spans="1:12" ht="15" customHeight="1"/>
-    <row r="107" spans="1:12" ht="15" customHeight="1"/>
-    <row r="108" spans="1:12" ht="15" customHeight="1"/>
-    <row r="109" spans="1:12" ht="15" customHeight="1"/>
-    <row r="110" spans="1:12" ht="15" customHeight="1"/>
-    <row r="111" spans="1:12" ht="15" customHeight="1"/>
+    <row r="105" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="O9:S9"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="A104" r:id="rId1" display="http://urbn.is/wealthcharts"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="80" orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="landscape" r:id="rId2"/>
 </worksheet>
 </file>